--- a/CHIP2/2024-3-24_gblockOrder/compiledToxgreen.xlsx
+++ b/CHIP2/2024-3-24_gblockOrder/compiledToxgreen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Sequence-Design\CHIP2\2024-3-24_gblockOrder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CAAD5C-29DD-43E2-9163-0E17E48D43BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E134A4AF-56A3-4E2D-B979-28B15807C9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="3636" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{86645FBF-7AD1-41F9-9DDC-DAB6499620F5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" firstSheet="3" activeTab="5" xr2:uid="{86645FBF-7AD1-41F9-9DDC-DAB6499620F5}"/>
   </bookViews>
   <sheets>
     <sheet name="all data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="data with all replicates" sheetId="3" r:id="rId3"/>
     <sheet name="data with duplicates" sheetId="4" r:id="rId4"/>
     <sheet name="good clash mutant" sheetId="6" r:id="rId5"/>
-    <sheet name="bad clash mutant" sheetId="7" r:id="rId6"/>
+    <sheet name="triplicate data" sheetId="9" r:id="rId6"/>
+    <sheet name="bad clash mutant" sheetId="7" r:id="rId7"/>
+    <sheet name="best good clash data" sheetId="8" r:id="rId8"/>
+    <sheet name="best bad clash data" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="152">
   <si>
     <t>Sample Name</t>
   </si>
@@ -2470,6 +2473,27 @@
   <si>
     <t>Average WT-NoTM</t>
   </si>
+  <si>
+    <t>SD-D7</t>
+  </si>
+  <si>
+    <t>512-D7</t>
+  </si>
+  <si>
+    <t>PercentGpA-D7</t>
+  </si>
+  <si>
+    <t>PercentSD-D7</t>
+  </si>
+  <si>
+    <t>WT-NoTM-D7</t>
+  </si>
+  <si>
+    <t>This sheet mixes days, but only keeps data that agrees with each other in duplicate (Percent GpA that are closest are kept)</t>
+  </si>
+  <si>
+    <t>512-D23</t>
+  </si>
 </sst>
 </file>
 
@@ -6474,6 +6498,775 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'triplicate data'!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>L4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LD23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LC9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LWT11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LD50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LC3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LD9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LC4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RWT34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RD17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RC8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RWT40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RD52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RC1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RWT39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RD39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RC2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>YF9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>M27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RD53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>RC6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>YF7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'triplicate data'!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>51.226395002129699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.397770836291301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.522078659662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.4729113853911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.702572414079697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.541093518403002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.254933976998402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.1532017606133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.7385347153201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.303776799659197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.555090160442901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.1108192531591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.566956184460203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.750599121749801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.471235229744103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.026389062045403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.3894914737702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.032414910858897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.550624056296598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.4475722763015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.4237189043819</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.927241369230298</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.3686164459645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2F7-41E3-88C5-BFC64FAC50C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'triplicate data'!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>L4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LD23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LC9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LWT11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LD50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LC3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LD9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LC4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RWT34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RD17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RC8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RWT40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RD52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RC1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RWT39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RD39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RC2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>YF9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>M27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RD53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>RC6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>YF7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'triplicate data'!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>60.393077342678097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.759591384696698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.353207597070899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.007207696251399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.772037757471502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.403570674628298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.912508058250793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.026017819065402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.9314511463378</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.019802634841298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.142883118171099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.185397623022595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.987949815693298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.968411656776297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.360480684992602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.645134051087098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.110889954461797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.315962483790202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.645797521035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.259547092908306</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.104436299484398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.3957233890468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.577068726902198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2F7-41E3-88C5-BFC64FAC50C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'triplicate data'!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>L4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LD23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LC9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LWT11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LD50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LC3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LD9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LC4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RWT34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RD17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RC8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RWT40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RD52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RC1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RWT39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RD39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RC2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>YF9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>M27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RD53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>RC6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>YF7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'triplicate data'!$O$2:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>63.041934485332902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.488829002713103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.902328884356898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.837235815136303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.577070361600697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.441287380513899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.641344525573999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.759955570931702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.330140752744903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.773002804668401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.576103018788203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.970686691395997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.675594967133399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.377756332052599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.243941076858597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.8416395054535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.1668639268741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.010961597989699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.219505089313301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.350188459367402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.830969245616203</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.166099164223603</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.664050692838501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2F7-41E3-88C5-BFC64FAC50C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="149245455"/>
+        <c:axId val="149263215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="149245455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149263215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149263215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149245455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -7178,6 +7971,1844 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="244520927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best good clash data'!$F$3:$F$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="31"/>
+                  <c:pt idx="0">
+                    <c:v>1.93631770691636</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.19746087395538</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6339291459875098</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.94116077048692</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.2671169513281102</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.8808591607435201</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.6371555445424399</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.70514962940323</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.10777824200611</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1486778691424699</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.6436757292320601</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.88767799311212003</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.5055766885228099</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.58213652700601004</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.67568008401420998</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.6556851950675999</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.90089320304501297</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.1920783184542001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.66299733487819901</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.63861898732040401</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.67460749515427</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.76179721621178298</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.25398592713804</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.12758507403858</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.5849353726616799</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.76289477993702</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.946635422784184</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1.04529577988331</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2.9094235004144999</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.24765972255455</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.85580742143282496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best good clash data'!$F$3:$F$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="31"/>
+                  <c:pt idx="0">
+                    <c:v>1.93631770691636</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.19746087395538</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6339291459875098</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.94116077048692</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.2671169513281102</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.8808591607435201</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.6371555445424399</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.70514962940323</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.10777824200611</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1486778691424699</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.6436757292320601</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.88767799311212003</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.5055766885228099</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.58213652700601004</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.67568008401420998</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.6556851950675999</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.90089320304501297</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.1920783184542001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.66299733487819901</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.63861898732040401</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.67460749515427</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.76179721621178298</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.25398592713804</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.12758507403858</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.5849353726616799</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.76289477993702</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.946635422784184</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1.04529577988331</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2.9094235004144999</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.24765972255455</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.85580742143282496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'best good clash data'!$A$3:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>L4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LD23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LC9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LWT3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LD21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LC2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LD9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LC4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RWT34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RD17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RC8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RWT40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RD52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RC1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RWT3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RD2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RC11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>M18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>RWT39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RD39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>RC2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>YF9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>RWT38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>RD3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>M17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>YF3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>M27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>RD53</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>RC6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>YF7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'best good clash data'!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>60.393077342678097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.397770836291301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.353207597070899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.345307397415795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.108902456339607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.717378957830398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.254933976998402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.026017819065402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.7385347153201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.303776799659197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.555090160442901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.1108192531591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.987949815693298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.968411656776297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.360480684992602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.219721709498799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.7715462161011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.216030100809299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.385044871232701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.645134051087098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.3894914737702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.032414910858897</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.645797521035</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.340699815837901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.354613157559299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.108246367914802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.885702592884897</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.4475722763015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.104436299484398</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.3957233890468</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.577068726902198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89BA-462F-A7A8-29D624DBB21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best good clash data'!$K$3:$K$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="31"/>
+                  <c:pt idx="0">
+                    <c:v>2.17521477588024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.64958371079820498</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0304183066944299</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3415704227273999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.81802218671850202</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6942957245730501</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.1999603112945696</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.1231612247673697</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7008944102884498</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.83619853289096402</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.4799676073717101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.24063666311552101</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.5818926276697201</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.5487233825600102</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.71698217711783896</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.0373064137752799</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.83749513868243197</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.53782456124200495</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.38661917888531999</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.9499666511054801</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.743740415281539</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.91331619263104</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.0789023061584202</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.00681886157669</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>6.5903288076121598</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.82938960450049</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.8097558356398098</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.9083015395135003</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1.12119967339697</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.89029659595252097</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.26709155326181899</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best good clash data'!$K$3:$K$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="31"/>
+                  <c:pt idx="0">
+                    <c:v>2.17521477588024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.64958371079820498</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0304183066944299</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3415704227273999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.81802218671850202</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6942957245730501</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.1999603112945696</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.1231612247673697</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7008944102884498</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.83619853289096402</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.4799676073717101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.24063666311552101</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.5818926276697201</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.5487233825600102</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.71698217711783896</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.0373064137752799</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.83749513868243197</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.53782456124200495</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.38661917888531999</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.9499666511054801</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.743740415281539</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.91331619263104</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.0789023061584202</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.00681886157669</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>6.5903288076121598</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.82938960450049</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.8097558356398098</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.9083015395135003</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1.12119967339697</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.89029659595252097</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.26709155326181899</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'best good clash data'!$A$3:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>L4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LD23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LC9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LWT3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LD21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LC2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LD9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LC4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RWT34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RD17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RC8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RWT40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RD52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RC1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RWT3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RD2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RC11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>M18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>RWT39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RD39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>RC2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>YF9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>RWT38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>RD3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>M17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>YF3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>M27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>RD53</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>RC6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>YF7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'best good clash data'!$J$3:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>63.041934485332902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.759591384696698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.902328884356898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.119328231151897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.703373721010905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.290344975783903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.912508058250793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.759955570931702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.330140752744903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.019802634841298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.576103018788203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.970686691395997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.675594967133399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.377756332052599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.243941076858597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.111460072400206</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.726035313978002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.728375573679401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.417562696759099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.8416395054535</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.110889954461797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.010961597989699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.219505089313301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.149620549632701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80.089121408909094</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.047830517238701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58.004957948686702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72.350188459367402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.830969245616203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.166099164223603</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49.664050692838501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89BA-462F-A7A8-29D624DBB21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="149247855"/>
+        <c:axId val="149243055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="149247855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149243055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149243055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149247855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best bad clash data'!$F$2:$F$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>2.6543526352167999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4247685209026699</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.67326154343357</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.2006334862969101</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.83392507592487</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9762729035963</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.40282728282400299</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1706078380738401</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.89404341377406404</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.66241741771779195</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.53028806157546704</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.07458495808801</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.60799846321147</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best bad clash data'!$F$2:$F$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>2.6543526352167999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4247685209026699</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.67326154343357</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.2006334862969101</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.83392507592487</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9762729035963</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.40282728282400299</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1706078380738401</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.89404341377406404</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.66241741771779195</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.53028806157546704</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.07458495808801</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.60799846321147</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'best bad clash data'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>LWT11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LD50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LC3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LWT12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LD8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RWT30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RD36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RWT33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RC7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YF6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'best bad clash data'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>49.4729113853911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.772037757471502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.541093518403002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.681633488263302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.786985880908503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.2604285421965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.649653599929806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.058756467596197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.494314361717599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.303282761846301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.167879797714001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5545908971323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.721359876055999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BB8-48B8-889E-6D6985E350C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best bad clash data'!$K$2:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.93688701002128605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.25642540799032898</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.83011621412673</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7859855750762099</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.99013664466146301</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.7859855750762099</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0625552164827401</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.1962640432143101</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.83559182107936</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1786107242492401</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.82234227417772</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.07201809614321</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.46259919159129698</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best bad clash data'!$K$2:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.93688701002128605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.25642540799032898</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.83011621412673</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7859855750762099</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.99013664466146301</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.7859855750762099</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0625552164827401</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.1962640432143101</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.83559182107936</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1786107242492401</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.82234227417772</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.07201809614321</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.46259919159129698</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'best bad clash data'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>LWT11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LD50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LC3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LWT12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LD8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RWT30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RD36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RWT33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RC7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YF6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'best bad clash data'!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>51.837235815136303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.577070361600697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.403570674628298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.780861709731802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.9016166562742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.780861709731802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.074642982069193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.199002326890003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.608185177862595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.474898483719301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.761531793226098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.580368956549499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.729153042446697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BB8-48B8-889E-6D6985E350C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="266037935"/>
+        <c:axId val="266039855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="266037935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266039855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="266039855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266037935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7458,6 +10089,126 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10515,20 +13266,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>631370</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>166007</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>566056</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>166551</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>859971</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>166550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10673,16 +14933,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66946</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>337456</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>169817</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120831</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10714,16 +14974,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563334</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB48EC34-1006-424D-C972-E8BC0683ECE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>14151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>652054</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10731,6 +15032,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58B6A67-5B8B-DF93-B3B0-CF6778856FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>547008</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>348344</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199DADB6-83EA-9BD6-1060-633CDE7645AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EC65C7-B6B8-710E-0CE5-AB4812A5252E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11070,8 +15453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF1B4F4-630B-419B-9A66-7F9D342DED02}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47:V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12641,6 +17024,9 @@
       <c r="I29" s="1">
         <v>45409</v>
       </c>
+      <c r="Q29" s="1">
+        <v>45411</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
@@ -12679,6 +17065,24 @@
       <c r="N30" t="s">
         <v>4</v>
       </c>
+      <c r="Q30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>512</v>
+      </c>
+      <c r="T30" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" t="s">
+        <v>3</v>
+      </c>
+      <c r="V30" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
@@ -12717,6 +17121,24 @@
       <c r="N31">
         <v>4924</v>
       </c>
+      <c r="Q31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>1102.71120425975</v>
+      </c>
+      <c r="S31">
+        <v>31315</v>
+      </c>
+      <c r="T31">
+        <v>25.748830095231099</v>
+      </c>
+      <c r="U31">
+        <v>0.90670680001891002</v>
+      </c>
+      <c r="V31">
+        <v>4713.6666666666597</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
@@ -12755,8 +17177,26 @@
       <c r="N32">
         <v>7580.6666666666597</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q32" t="s">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>545.24520477793703</v>
+      </c>
+      <c r="S32">
+        <v>34467.666666666599</v>
+      </c>
+      <c r="T32">
+        <v>42.970556637957699</v>
+      </c>
+      <c r="U32">
+        <v>0.67975271375545698</v>
+      </c>
+      <c r="V32">
+        <v>7866.3333333333303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -12793,8 +17233,26 @@
       <c r="N33">
         <v>28186.333333333299</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33">
+        <v>572.48493429958398</v>
+      </c>
+      <c r="S33">
+        <v>34154</v>
+      </c>
+      <c r="T33">
+        <v>41.257124128261601</v>
+      </c>
+      <c r="U33">
+        <v>0.69154658300514305</v>
+      </c>
+      <c r="V33">
+        <v>7552.6666666666597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -12831,8 +17289,26 @@
       <c r="N34">
         <v>4021.6666666666601</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q34" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>482.29589810958697</v>
+      </c>
+      <c r="S34">
+        <v>30080.666666666599</v>
+      </c>
+      <c r="T34">
+        <v>19.006172727107199</v>
+      </c>
+      <c r="U34">
+        <v>0.30473390921232202</v>
+      </c>
+      <c r="V34">
+        <v>3479.3333333333298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -12869,8 +17345,26 @@
       <c r="N35">
         <v>21917.666666666599</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>3230.6362118525999</v>
+      </c>
+      <c r="S35">
+        <v>44907.666666666599</v>
+      </c>
+      <c r="T35">
+        <v>100</v>
+      </c>
+      <c r="U35">
+        <v>7.1939525066676104</v>
+      </c>
+      <c r="V35">
+        <v>18306.333333333299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -12907,8 +17401,26 @@
       <c r="N36">
         <v>15978.333333333299</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36">
+        <v>1316.0611687911701</v>
+      </c>
+      <c r="S36">
+        <v>38142</v>
+      </c>
+      <c r="T36">
+        <v>63.041934485332902</v>
+      </c>
+      <c r="U36">
+        <v>2.17521477588024</v>
+      </c>
+      <c r="V36">
+        <v>11540.666666666601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -12945,8 +17457,26 @@
       <c r="N37">
         <v>11568.333333333299</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q37" t="s">
+        <v>9</v>
+      </c>
+      <c r="R37">
+        <v>3549.3991510301198</v>
+      </c>
+      <c r="S37">
+        <v>38068.666666666599</v>
+      </c>
+      <c r="T37">
+        <v>62.641344525573999</v>
+      </c>
+      <c r="U37">
+        <v>5.8404760278389301</v>
+      </c>
+      <c r="V37">
+        <v>11467.333333333299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -12983,8 +17513,26 @@
       <c r="N38">
         <v>7681.6666666666597</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38">
+        <v>2595.44967202217</v>
+      </c>
+      <c r="S38">
+        <v>35998</v>
+      </c>
+      <c r="T38">
+        <v>51.330140752744903</v>
+      </c>
+      <c r="U38">
+        <v>3.7008944102884498</v>
+      </c>
+      <c r="V38">
+        <v>9396.6666666666606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -13021,8 +17569,26 @@
       <c r="N39">
         <v>10612</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q39" t="s">
+        <v>25</v>
+      </c>
+      <c r="R39">
+        <v>678.96023447621701</v>
+      </c>
+      <c r="S39">
+        <v>36835</v>
+      </c>
+      <c r="T39">
+        <v>55.902328884356898</v>
+      </c>
+      <c r="U39">
+        <v>1.0304183066944299</v>
+      </c>
+      <c r="V39">
+        <v>10233.666666666601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13059,8 +17625,26 @@
       <c r="N40">
         <v>17152.666666666599</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R40">
+        <v>854.070254721472</v>
+      </c>
+      <c r="S40">
+        <v>38773</v>
+      </c>
+      <c r="T40">
+        <v>66.488829002713103</v>
+      </c>
+      <c r="U40">
+        <v>1.46457924644674</v>
+      </c>
+      <c r="V40">
+        <v>12171.666666666601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -13097,8 +17681,26 @@
       <c r="N41">
         <v>12747.916666666601</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41">
+        <v>4642.3570521880301</v>
+      </c>
+      <c r="S41">
+        <v>36992</v>
+      </c>
+      <c r="T41">
+        <v>56.759955570931702</v>
+      </c>
+      <c r="U41">
+        <v>7.1231612247673697</v>
+      </c>
+      <c r="V41">
+        <v>10390.666666666601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -13135,8 +17737,26 @@
       <c r="N42">
         <v>15475.666666666601</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42">
+        <v>2703.1883027269801</v>
+      </c>
+      <c r="S42">
+        <v>39846</v>
+      </c>
+      <c r="T42">
+        <v>72.350188459367402</v>
+      </c>
+      <c r="U42">
+        <v>4.9083015395135003</v>
+      </c>
+      <c r="V42">
+        <v>13244.666666666601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -13173,8 +17793,26 @@
       <c r="N43">
         <v>13098.333333333299</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q43" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43">
+        <v>2593.8745793375001</v>
+      </c>
+      <c r="S43">
+        <v>26601.333333333299</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -13211,8 +17849,26 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q44" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44">
+        <v>643.35474921176399</v>
+      </c>
+      <c r="S44">
+        <v>33419.333333333299</v>
+      </c>
+      <c r="T44">
+        <v>37.243941076858597</v>
+      </c>
+      <c r="U44">
+        <v>0.71698217711783896</v>
+      </c>
+      <c r="V44">
+        <v>6818</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -13249,8 +17905,26 @@
       <c r="N45">
         <v>9710</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q45" t="s">
+        <v>15</v>
+      </c>
+      <c r="R45">
+        <v>1561.76950924264</v>
+      </c>
+      <c r="S45">
+        <v>34292</v>
+      </c>
+      <c r="T45">
+        <v>42.010961597989699</v>
+      </c>
+      <c r="U45">
+        <v>1.91331619263104</v>
+      </c>
+      <c r="V45">
+        <v>7690.6666666666597</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -13287,8 +17961,26 @@
       <c r="N46">
         <v>13237.333333333299</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q46" t="s">
+        <v>44</v>
+      </c>
+      <c r="R46">
+        <v>543.94515654919906</v>
+      </c>
+      <c r="S46">
+        <v>37981.666666666599</v>
+      </c>
+      <c r="T46">
+        <v>62.166099164223603</v>
+      </c>
+      <c r="U46">
+        <v>0.89029659595252097</v>
+      </c>
+      <c r="V46">
+        <v>11380.333333333299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -13325,8 +18017,26 @@
       <c r="N47">
         <v>13935.333333333299</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q47" t="s">
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <v>1385.72868917403</v>
+      </c>
+      <c r="S47">
+        <v>40396</v>
+      </c>
+      <c r="T47">
+        <v>75.354613157559299</v>
+      </c>
+      <c r="U47">
+        <v>2.5849353726616799</v>
+      </c>
+      <c r="V47">
+        <v>13794.666666666601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -13363,8 +18073,26 @@
       <c r="N48">
         <v>8268.6666666666606</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q48" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48">
+        <v>1936.9724658170301</v>
+      </c>
+      <c r="S48">
+        <v>34686.666666666599</v>
+      </c>
+      <c r="T48">
+        <v>44.1668639268741</v>
+      </c>
+      <c r="U48">
+        <v>2.46636553895376</v>
+      </c>
+      <c r="V48">
+        <v>8085.3333333333303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -13401,8 +18129,26 @@
       <c r="N49">
         <v>17553.666666666599</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q49" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49">
+        <v>2071.8159506416901</v>
+      </c>
+      <c r="S49">
+        <v>38752.666666666599</v>
+      </c>
+      <c r="T49">
+        <v>66.377756332052599</v>
+      </c>
+      <c r="U49">
+        <v>3.5487233825600102</v>
+      </c>
+      <c r="V49">
+        <v>12151.333333333299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -13439,8 +18185,26 @@
       <c r="N50">
         <v>12098.333333333299</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q50" t="s">
+        <v>48</v>
+      </c>
+      <c r="R50">
+        <v>730.05958660920203</v>
+      </c>
+      <c r="S50">
+        <v>37005</v>
+      </c>
+      <c r="T50">
+        <v>56.830969245616203</v>
+      </c>
+      <c r="U50">
+        <v>1.12119967339697</v>
+      </c>
+      <c r="V50">
+        <v>10403.666666666601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -13477,8 +18241,26 @@
       <c r="N51">
         <v>13392.666666666601</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q51" t="s">
+        <v>18</v>
+      </c>
+      <c r="R51">
+        <v>1182.4027796539201</v>
+      </c>
+      <c r="S51">
+        <v>38105.333333333299</v>
+      </c>
+      <c r="T51">
+        <v>62.8416395054535</v>
+      </c>
+      <c r="U51">
+        <v>1.9499666511054801</v>
+      </c>
+      <c r="V51">
+        <v>11504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -13515,8 +18297,26 @@
       <c r="N52">
         <v>14986.666666666601</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q52" t="s">
+        <v>19</v>
+      </c>
+      <c r="R52">
+        <v>1551.2701247687301</v>
+      </c>
+      <c r="S52">
+        <v>38258</v>
+      </c>
+      <c r="T52">
+        <v>63.675594967133399</v>
+      </c>
+      <c r="U52">
+        <v>2.5818926276697201</v>
+      </c>
+      <c r="V52">
+        <v>11656.666666666601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -13553,8 +18353,26 @@
       <c r="N53">
         <v>14043.666666666601</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q53" t="s">
+        <v>54</v>
+      </c>
+      <c r="R53">
+        <v>191.95572406156501</v>
+      </c>
+      <c r="S53">
+        <v>35693</v>
+      </c>
+      <c r="T53">
+        <v>49.664050692838501</v>
+      </c>
+      <c r="U53">
+        <v>0.26709155326181899</v>
+      </c>
+      <c r="V53">
+        <v>9091.6666666666606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -13591,8 +18409,26 @@
       <c r="N54">
         <v>12816.333333333299</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q54" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>2046.8583243595499</v>
+      </c>
+      <c r="S54">
+        <v>36710</v>
+      </c>
+      <c r="T54">
+        <v>55.219505089313301</v>
+      </c>
+      <c r="U54">
+        <v>3.0789023061584202</v>
+      </c>
+      <c r="V54">
+        <v>10108.666666666601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -13630,7 +18466,7 @@
         <v>11868.333333333299</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -13668,7 +18504,7 @@
         <v>12713.333333333299</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -13706,7 +18542,7 @@
         <v>11523.666666666601</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -13744,7 +18580,7 @@
         <v>11557</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -13764,7 +18600,7 @@
         <v>9096.3333333333303</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -13784,7 +18620,7 @@
         <v>10883.333333333299</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -13812,10 +18648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EF44C-5E2C-4335-9923-8A5A38F7E421}">
-  <dimension ref="A1:AF58"/>
+  <dimension ref="A1:AK58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="K9" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13839,7 +18675,7 @@
     <col min="26" max="27" width="9.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13936,8 +18772,23 @@
       <c r="AF1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -14031,8 +18882,23 @@
       <c r="AF2">
         <v>4924</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG2">
+        <v>1102.71120425975</v>
+      </c>
+      <c r="AH2">
+        <v>31315</v>
+      </c>
+      <c r="AI2">
+        <v>25.748830095231099</v>
+      </c>
+      <c r="AJ2">
+        <v>0.90670680001891002</v>
+      </c>
+      <c r="AK2">
+        <v>4713.6666666666597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -14126,8 +18992,23 @@
       <c r="AF3">
         <v>7580.6666666666597</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG3">
+        <v>545.24520477793703</v>
+      </c>
+      <c r="AH3">
+        <v>34467.666666666599</v>
+      </c>
+      <c r="AI3">
+        <v>42.970556637957699</v>
+      </c>
+      <c r="AJ3">
+        <v>0.67975271375545698</v>
+      </c>
+      <c r="AK3">
+        <v>7866.3333333333303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -14206,8 +19087,23 @@
       <c r="AF4">
         <v>28186.333333333299</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG4">
+        <v>572.48493429958398</v>
+      </c>
+      <c r="AH4">
+        <v>34154</v>
+      </c>
+      <c r="AI4">
+        <v>41.257124128261601</v>
+      </c>
+      <c r="AJ4">
+        <v>0.69154658300514305</v>
+      </c>
+      <c r="AK4">
+        <v>7552.6666666666597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -14301,8 +19197,23 @@
       <c r="AF5">
         <v>4021.6666666666601</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG5">
+        <v>482.29589810958697</v>
+      </c>
+      <c r="AH5">
+        <v>30080.666666666599</v>
+      </c>
+      <c r="AI5">
+        <v>19.006172727107199</v>
+      </c>
+      <c r="AJ5">
+        <v>0.30473390921232202</v>
+      </c>
+      <c r="AK5">
+        <v>3479.3333333333298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -14396,8 +19307,23 @@
       <c r="AF6">
         <v>21917.666666666599</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG6">
+        <v>3230.6362118525999</v>
+      </c>
+      <c r="AH6">
+        <v>44907.666666666599</v>
+      </c>
+      <c r="AI6">
+        <v>100</v>
+      </c>
+      <c r="AJ6">
+        <v>7.1939525066676104</v>
+      </c>
+      <c r="AK6">
+        <v>18306.333333333299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -14491,8 +19417,23 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG7">
+        <v>2593.8745793375001</v>
+      </c>
+      <c r="AH7">
+        <v>26601.333333333299</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -14529,8 +19470,23 @@
       <c r="Q8">
         <v>12178.666666666601</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG8">
+        <v>1316.0611687911701</v>
+      </c>
+      <c r="AH8">
+        <v>38142</v>
+      </c>
+      <c r="AI8">
+        <v>63.041934485332902</v>
+      </c>
+      <c r="AJ8">
+        <v>2.17521477588024</v>
+      </c>
+      <c r="AK8">
+        <v>11540.666666666601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -14567,8 +19523,23 @@
       <c r="Q9">
         <v>10437.666666666601</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG9">
+        <v>854.070254721472</v>
+      </c>
+      <c r="AH9">
+        <v>38773</v>
+      </c>
+      <c r="AI9">
+        <v>66.488829002713103</v>
+      </c>
+      <c r="AJ9">
+        <v>1.46457924644674</v>
+      </c>
+      <c r="AK9">
+        <v>12171.666666666601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -14605,8 +19576,23 @@
       <c r="Q10">
         <v>11364</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG10">
+        <v>678.96023447621701</v>
+      </c>
+      <c r="AH10">
+        <v>36835</v>
+      </c>
+      <c r="AI10">
+        <v>55.902328884356898</v>
+      </c>
+      <c r="AJ10">
+        <v>1.0304183066944299</v>
+      </c>
+      <c r="AK10">
+        <v>10233.666666666601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -14644,7 +19630,7 @@
         <v>14745</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -14682,7 +19668,7 @@
         <v>17081</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -14720,7 +19706,7 @@
         <v>11149.666666666601</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -14773,7 +19759,7 @@
         <v>11822</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -14826,7 +19812,7 @@
         <v>11762.666666666601</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -14879,7 +19865,7 @@
         <v>12872</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -14917,7 +19903,7 @@
         <v>11568.333333333299</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -14955,7 +19941,7 @@
         <v>15978.333333333299</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -14993,7 +19979,7 @@
         <v>11568.333333333299</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -15045,8 +20031,23 @@
       <c r="Q20">
         <v>13896.666666666601</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG20">
+        <v>3549.3991510301198</v>
+      </c>
+      <c r="AH20">
+        <v>38068.666666666599</v>
+      </c>
+      <c r="AI20">
+        <v>62.641344525573999</v>
+      </c>
+      <c r="AJ20">
+        <v>5.8404760278389301</v>
+      </c>
+      <c r="AK20">
+        <v>11467.333333333299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -15083,8 +20084,23 @@
       <c r="Q21">
         <v>11701.333333333299</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG21">
+        <v>4642.3570521880301</v>
+      </c>
+      <c r="AH21">
+        <v>36992</v>
+      </c>
+      <c r="AI21">
+        <v>56.759955570931702</v>
+      </c>
+      <c r="AJ21">
+        <v>7.1231612247673697</v>
+      </c>
+      <c r="AK21">
+        <v>10390.666666666601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -15121,8 +20137,23 @@
       <c r="Q22">
         <v>10270.666666666601</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG22">
+        <v>2595.44967202217</v>
+      </c>
+      <c r="AH22">
+        <v>35998</v>
+      </c>
+      <c r="AI22">
+        <v>51.330140752744903</v>
+      </c>
+      <c r="AJ22">
+        <v>3.7008944102884498</v>
+      </c>
+      <c r="AK22">
+        <v>9396.6666666666606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -15160,7 +20191,7 @@
         <v>14043.666666666601</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -15198,7 +20229,7 @@
         <v>12098.333333333299</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -15236,7 +20267,7 @@
         <v>15475.666666666601</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -15289,7 +20320,7 @@
         <v>11666</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -15342,7 +20373,7 @@
         <v>7422.3333333333303</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -15395,7 +20426,7 @@
         <v>12815</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -15432,8 +20463,23 @@
       <c r="Q29">
         <v>11492</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG29">
+        <v>1551.2701247687301</v>
+      </c>
+      <c r="AH29">
+        <v>38258</v>
+      </c>
+      <c r="AI29">
+        <v>63.675594967133399</v>
+      </c>
+      <c r="AJ29">
+        <v>2.5818926276697201</v>
+      </c>
+      <c r="AK29">
+        <v>11656.666666666601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -15470,8 +20516,23 @@
       <c r="Q30">
         <v>12698</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG30">
+        <v>2071.8159506416901</v>
+      </c>
+      <c r="AH30">
+        <v>38752.666666666599</v>
+      </c>
+      <c r="AI30">
+        <v>66.377756332052599</v>
+      </c>
+      <c r="AJ30">
+        <v>3.5487233825600102</v>
+      </c>
+      <c r="AK30">
+        <v>12151.333333333299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -15508,8 +20569,23 @@
       <c r="Q31">
         <v>7332.3333333333303</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG31">
+        <v>643.35474921176399</v>
+      </c>
+      <c r="AH31">
+        <v>33419.333333333299</v>
+      </c>
+      <c r="AI31">
+        <v>37.243941076858597</v>
+      </c>
+      <c r="AJ31">
+        <v>0.71698217711783896</v>
+      </c>
+      <c r="AK31">
+        <v>6818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -15577,7 +20653,7 @@
         <v>14986.666666666601</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -15645,7 +20721,7 @@
         <v>8268.6666666666606</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -15713,7 +20789,7 @@
         <v>9710</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -15754,7 +20830,7 @@
         <v>10612</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -15791,8 +20867,23 @@
       <c r="V36">
         <v>13848.333333333299</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG36">
+        <v>1182.4027796539201</v>
+      </c>
+      <c r="AH36">
+        <v>38105.333333333299</v>
+      </c>
+      <c r="AI36">
+        <v>62.8416395054535</v>
+      </c>
+      <c r="AJ36">
+        <v>1.9499666511054801</v>
+      </c>
+      <c r="AK36">
+        <v>11504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="14.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -15829,8 +20920,23 @@
       <c r="V37">
         <v>10414.333333333299</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG37">
+        <v>1936.9724658170301</v>
+      </c>
+      <c r="AH37">
+        <v>34686.666666666599</v>
+      </c>
+      <c r="AI37">
+        <v>44.1668639268741</v>
+      </c>
+      <c r="AJ37">
+        <v>2.46636553895376</v>
+      </c>
+      <c r="AK37">
+        <v>8085.3333333333303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -15867,8 +20973,23 @@
       <c r="V38">
         <v>10459.666666666601</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG38">
+        <v>1561.76950924264</v>
+      </c>
+      <c r="AH38">
+        <v>34292</v>
+      </c>
+      <c r="AI38">
+        <v>42.010961597989699</v>
+      </c>
+      <c r="AJ38">
+        <v>1.91331619263104</v>
+      </c>
+      <c r="AK38">
+        <v>7690.6666666666597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -15905,8 +21026,23 @@
       <c r="V39">
         <v>12080</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG39">
+        <v>2046.8583243595499</v>
+      </c>
+      <c r="AH39">
+        <v>36710</v>
+      </c>
+      <c r="AI39">
+        <v>55.219505089313301</v>
+      </c>
+      <c r="AJ39">
+        <v>3.0789023061584202</v>
+      </c>
+      <c r="AK39">
+        <v>10108.666666666601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -15944,7 +21080,7 @@
         <v>11868.333333333299</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -15981,8 +21117,23 @@
       <c r="AF41">
         <v>17553.666666666599</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG41">
+        <v>1385.72868917403</v>
+      </c>
+      <c r="AH41">
+        <v>40396</v>
+      </c>
+      <c r="AI41">
+        <v>75.354613157559299</v>
+      </c>
+      <c r="AJ41">
+        <v>2.5849353726616799</v>
+      </c>
+      <c r="AK41">
+        <v>13794.666666666601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -16020,7 +21171,7 @@
         <v>7681.6666666666597</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -16058,7 +21209,7 @@
         <v>12713.333333333299</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -16095,8 +21246,23 @@
       <c r="AF44">
         <v>17152.666666666599</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG44">
+        <v>2703.1883027269801</v>
+      </c>
+      <c r="AH44">
+        <v>39846</v>
+      </c>
+      <c r="AI44">
+        <v>72.350188459367402</v>
+      </c>
+      <c r="AJ44">
+        <v>4.9083015395135003</v>
+      </c>
+      <c r="AK44">
+        <v>13244.666666666601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -16133,8 +21299,23 @@
       <c r="AF45">
         <v>13392.666666666601</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG45">
+        <v>730.05958660920203</v>
+      </c>
+      <c r="AH45">
+        <v>37005</v>
+      </c>
+      <c r="AI45">
+        <v>56.830969245616203</v>
+      </c>
+      <c r="AJ45">
+        <v>1.12119967339697</v>
+      </c>
+      <c r="AK45">
+        <v>10403.666666666601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -16171,8 +21352,23 @@
       <c r="AF46">
         <v>13237.333333333299</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG46">
+        <v>543.94515654919906</v>
+      </c>
+      <c r="AH46">
+        <v>37981.666666666599</v>
+      </c>
+      <c r="AI46">
+        <v>62.166099164223603</v>
+      </c>
+      <c r="AJ46">
+        <v>0.89029659595252097</v>
+      </c>
+      <c r="AK46">
+        <v>11380.333333333299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -16209,8 +21405,23 @@
       <c r="AF47">
         <v>11523.666666666601</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" ht="15" x14ac:dyDescent="0.45">
+      <c r="AG47">
+        <v>191.95572406156501</v>
+      </c>
+      <c r="AH47">
+        <v>35693</v>
+      </c>
+      <c r="AI47">
+        <v>49.664050692838501</v>
+      </c>
+      <c r="AJ47">
+        <v>0.26709155326181899</v>
+      </c>
+      <c r="AK47">
+        <v>9091.6666666666606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -16420,8 +21631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2EBEC-DBAE-45BF-B04B-74E71C57A588}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:V45"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16524,6 +21735,21 @@
       <c r="L2">
         <v>12178.666666666601</v>
       </c>
+      <c r="M2">
+        <v>1316.0611687911701</v>
+      </c>
+      <c r="N2">
+        <v>38142</v>
+      </c>
+      <c r="O2">
+        <v>63.041934485332902</v>
+      </c>
+      <c r="P2">
+        <v>2.17521477588024</v>
+      </c>
+      <c r="Q2">
+        <v>11540.666666666601</v>
+      </c>
       <c r="W2">
         <f>AVERAGE(C2,H2)</f>
         <v>1242.834476933835</v>
@@ -16533,7 +21759,7 @@
         <v>34566.333333333299</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:AB4" si="0">AVERAGE(E2,J2)</f>
+        <f t="shared" ref="Y2:AA4" si="0">AVERAGE(E2,J2)</f>
         <v>55.809736172403902</v>
       </c>
       <c r="Z2">
@@ -16582,12 +21808,27 @@
       <c r="L3">
         <v>10437.666666666601</v>
       </c>
+      <c r="M3">
+        <v>854.070254721472</v>
+      </c>
+      <c r="N3">
+        <v>38773</v>
+      </c>
+      <c r="O3">
+        <v>66.488829002713103</v>
+      </c>
+      <c r="P3">
+        <v>1.46457924644674</v>
+      </c>
+      <c r="Q3">
+        <v>12171.666666666601</v>
+      </c>
       <c r="W3">
         <f t="shared" ref="W3:W7" si="1">AVERAGE(C3,H3)</f>
         <v>1258.8123135490193</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X7" si="2">AVERAGE(D3,I3)</f>
+        <f t="shared" ref="X3:X4" si="2">AVERAGE(D3,I3)</f>
         <v>33805.833333333299</v>
       </c>
       <c r="Y3">
@@ -16640,6 +21881,21 @@
       <c r="L4">
         <v>11364</v>
       </c>
+      <c r="M4">
+        <v>678.96023447621701</v>
+      </c>
+      <c r="N4">
+        <v>36835</v>
+      </c>
+      <c r="O4">
+        <v>55.902328884356898</v>
+      </c>
+      <c r="P4">
+        <v>1.0304183066944299</v>
+      </c>
+      <c r="Q4">
+        <v>10233.666666666601</v>
+      </c>
       <c r="W4">
         <f t="shared" si="1"/>
         <v>1611.9265448534202</v>
@@ -16896,7 +22152,7 @@
         <v>34756</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y8:AB8" si="7">AVERAGE(E8,O8)</f>
+        <f t="shared" ref="Y8:AA8" si="7">AVERAGE(E8,O8)</f>
         <v>50.655073600263705</v>
       </c>
       <c r="Z8">
@@ -16969,7 +22225,7 @@
         <v>34796.888888888832</v>
       </c>
       <c r="Y9">
-        <f t="shared" ref="Y9:AB10" si="8">AVERAGE(E9,J9,O9)</f>
+        <f t="shared" ref="Y9:AA10" si="8">AVERAGE(E9,J9,O9)</f>
         <v>47.01722684438397</v>
       </c>
       <c r="Z9">
@@ -17265,6 +22521,21 @@
       <c r="L14">
         <v>13896.666666666601</v>
       </c>
+      <c r="M14">
+        <v>3549.3991510301198</v>
+      </c>
+      <c r="N14">
+        <v>38068.666666666599</v>
+      </c>
+      <c r="O14">
+        <v>62.641344525573999</v>
+      </c>
+      <c r="P14">
+        <v>5.8404760278389301</v>
+      </c>
+      <c r="Q14">
+        <v>11467.333333333299</v>
+      </c>
       <c r="W14">
         <f t="shared" si="14"/>
         <v>1832.322259697165</v>
@@ -17323,6 +22594,21 @@
       <c r="L15">
         <v>11701.333333333299</v>
       </c>
+      <c r="M15">
+        <v>4642.3570521880301</v>
+      </c>
+      <c r="N15">
+        <v>36992</v>
+      </c>
+      <c r="O15">
+        <v>56.759955570931702</v>
+      </c>
+      <c r="P15">
+        <v>7.1231612247673697</v>
+      </c>
+      <c r="Q15">
+        <v>10390.666666666601</v>
+      </c>
       <c r="W15">
         <f t="shared" si="14"/>
         <v>871.54843395915452</v>
@@ -17381,6 +22667,21 @@
       <c r="L16">
         <v>10270.666666666601</v>
       </c>
+      <c r="M16">
+        <v>2595.44967202217</v>
+      </c>
+      <c r="N16">
+        <v>35998</v>
+      </c>
+      <c r="O16">
+        <v>51.330140752744903</v>
+      </c>
+      <c r="P16">
+        <v>3.7008944102884498</v>
+      </c>
+      <c r="Q16">
+        <v>9396.6666666666606</v>
+      </c>
       <c r="W16">
         <f t="shared" si="14"/>
         <v>369.53647529914053</v>
@@ -17637,7 +22938,7 @@
         <v>36710.666666666635</v>
       </c>
       <c r="Y20">
-        <f t="shared" ref="Y20:AB22" si="19">AVERAGE(E20,J20,O20)</f>
+        <f t="shared" ref="Y20:AA22" si="19">AVERAGE(E20,J20,O20)</f>
         <v>60.032194079722963</v>
       </c>
       <c r="Z20">
@@ -17832,6 +23133,21 @@
       <c r="L23">
         <v>11492</v>
       </c>
+      <c r="M23">
+        <v>1551.2701247687301</v>
+      </c>
+      <c r="N23">
+        <v>38258</v>
+      </c>
+      <c r="O23">
+        <v>63.675594967133399</v>
+      </c>
+      <c r="P23">
+        <v>2.5818926276697201</v>
+      </c>
+      <c r="Q23">
+        <v>11656.666666666601</v>
+      </c>
       <c r="W23">
         <f t="shared" ref="W23" si="22">AVERAGE(C23,H23)</f>
         <v>1242.3804734193534</v>
@@ -17890,6 +23206,21 @@
       <c r="L24">
         <v>12698</v>
       </c>
+      <c r="M24">
+        <v>2071.8159506416901</v>
+      </c>
+      <c r="N24">
+        <v>38752.666666666599</v>
+      </c>
+      <c r="O24">
+        <v>66.377756332052599</v>
+      </c>
+      <c r="P24">
+        <v>3.5487233825600102</v>
+      </c>
+      <c r="Q24">
+        <v>12151.333333333299</v>
+      </c>
       <c r="W24">
         <f t="shared" ref="W24:W25" si="27">AVERAGE(C24,H24)</f>
         <v>3626.5538249864921</v>
@@ -17948,6 +23279,21 @@
       <c r="L25">
         <v>7332.3333333333303</v>
       </c>
+      <c r="M25">
+        <v>643.35474921176399</v>
+      </c>
+      <c r="N25">
+        <v>33419.333333333299</v>
+      </c>
+      <c r="O25">
+        <v>37.243941076858597</v>
+      </c>
+      <c r="P25">
+        <v>0.71698217711783896</v>
+      </c>
+      <c r="Q25">
+        <v>6818</v>
+      </c>
       <c r="W25">
         <f t="shared" si="27"/>
         <v>1154.0946736577716</v>
@@ -18045,7 +23391,7 @@
         <v>38163.25</v>
       </c>
       <c r="Y26">
-        <f t="shared" ref="Y26:AB28" si="32">AVERAGE(E26,J26,O26,T26)</f>
+        <f t="shared" ref="Y26:AA28" si="32">AVERAGE(E26,J26,O26,T26)</f>
         <v>69.425011651503894</v>
       </c>
       <c r="Z26">
@@ -18279,7 +23625,7 @@
         <v>34121.833333333299</v>
       </c>
       <c r="Y29">
-        <f t="shared" ref="Y29:AB29" si="35">AVERAGE(O29,T29)</f>
+        <f t="shared" ref="Y29:AA29" si="35">AVERAGE(O29,T29)</f>
         <v>45.4013037839959</v>
       </c>
       <c r="Z29">
@@ -18328,6 +23674,21 @@
       <c r="L30">
         <v>13848.333333333299</v>
       </c>
+      <c r="M30">
+        <v>1182.4027796539201</v>
+      </c>
+      <c r="N30">
+        <v>38105.333333333299</v>
+      </c>
+      <c r="O30">
+        <v>62.8416395054535</v>
+      </c>
+      <c r="P30">
+        <v>1.9499666511054801</v>
+      </c>
+      <c r="Q30">
+        <v>11504</v>
+      </c>
       <c r="W30">
         <f t="shared" ref="W30" si="36">AVERAGE(C30,H30)</f>
         <v>366.28063526625851</v>
@@ -18386,6 +23747,21 @@
       <c r="L31">
         <v>10414.333333333299</v>
       </c>
+      <c r="M31">
+        <v>1936.9724658170301</v>
+      </c>
+      <c r="N31">
+        <v>34686.666666666599</v>
+      </c>
+      <c r="O31">
+        <v>44.1668639268741</v>
+      </c>
+      <c r="P31">
+        <v>2.46636553895376</v>
+      </c>
+      <c r="Q31">
+        <v>8085.3333333333303</v>
+      </c>
       <c r="W31">
         <f t="shared" ref="W31:W45" si="41">AVERAGE(C31,H31)</f>
         <v>1231.3272122038454</v>
@@ -18444,6 +23820,21 @@
       <c r="L32">
         <v>10459.666666666601</v>
       </c>
+      <c r="M32">
+        <v>1561.76950924264</v>
+      </c>
+      <c r="N32">
+        <v>34292</v>
+      </c>
+      <c r="O32">
+        <v>42.010961597989699</v>
+      </c>
+      <c r="P32">
+        <v>1.91331619263104</v>
+      </c>
+      <c r="Q32">
+        <v>7690.6666666666597</v>
+      </c>
       <c r="W32">
         <f t="shared" si="41"/>
         <v>1145.5534097493021</v>
@@ -18502,6 +23893,21 @@
       <c r="L33">
         <v>12080</v>
       </c>
+      <c r="M33">
+        <v>2046.8583243595499</v>
+      </c>
+      <c r="N33">
+        <v>36710</v>
+      </c>
+      <c r="O33">
+        <v>55.219505089313301</v>
+      </c>
+      <c r="P33">
+        <v>3.0789023061584202</v>
+      </c>
+      <c r="Q33">
+        <v>10108.666666666601</v>
+      </c>
       <c r="W33">
         <f t="shared" si="41"/>
         <v>1293.7233118044639</v>
@@ -18618,6 +24024,21 @@
       <c r="L35">
         <v>17553.666666666599</v>
       </c>
+      <c r="M35">
+        <v>1385.72868917403</v>
+      </c>
+      <c r="N35">
+        <v>40396</v>
+      </c>
+      <c r="O35">
+        <v>75.354613157559299</v>
+      </c>
+      <c r="P35">
+        <v>2.5849353726616799</v>
+      </c>
+      <c r="Q35">
+        <v>13794.666666666601</v>
+      </c>
       <c r="W35">
         <f t="shared" si="41"/>
         <v>2131.4178472344902</v>
@@ -18792,6 +24213,21 @@
       <c r="L38">
         <v>17152.666666666599</v>
       </c>
+      <c r="M38">
+        <v>2703.1883027269801</v>
+      </c>
+      <c r="N38">
+        <v>39846</v>
+      </c>
+      <c r="O38">
+        <v>72.350188459367402</v>
+      </c>
+      <c r="P38">
+        <v>4.9083015395135003</v>
+      </c>
+      <c r="Q38">
+        <v>13244.666666666601</v>
+      </c>
       <c r="W38">
         <f t="shared" si="41"/>
         <v>760.88281765448949</v>
@@ -18850,6 +24286,21 @@
       <c r="L39">
         <v>13392.666666666601</v>
       </c>
+      <c r="M39">
+        <v>730.05958660920203</v>
+      </c>
+      <c r="N39">
+        <v>37005</v>
+      </c>
+      <c r="O39">
+        <v>56.830969245616203</v>
+      </c>
+      <c r="P39">
+        <v>1.12119967339697</v>
+      </c>
+      <c r="Q39">
+        <v>10403.666666666601</v>
+      </c>
       <c r="W39">
         <f t="shared" si="41"/>
         <v>1442.0409864124899</v>
@@ -18908,6 +24359,21 @@
       <c r="L40">
         <v>13237.333333333299</v>
       </c>
+      <c r="M40">
+        <v>543.94515654919906</v>
+      </c>
+      <c r="N40">
+        <v>37981.666666666599</v>
+      </c>
+      <c r="O40">
+        <v>62.166099164223603</v>
+      </c>
+      <c r="P40">
+        <v>0.89029659595252097</v>
+      </c>
+      <c r="Q40">
+        <v>11380.333333333299</v>
+      </c>
       <c r="W40">
         <f t="shared" si="41"/>
         <v>1282.3667817280354</v>
@@ -18965,6 +24431,21 @@
       </c>
       <c r="L41">
         <v>11523.666666666601</v>
+      </c>
+      <c r="M41">
+        <v>191.95572406156501</v>
+      </c>
+      <c r="N41">
+        <v>35693</v>
+      </c>
+      <c r="O41">
+        <v>49.664050692838501</v>
+      </c>
+      <c r="P41">
+        <v>0.26709155326181899</v>
+      </c>
+      <c r="Q41">
+        <v>9091.6666666666606</v>
       </c>
       <c r="W41">
         <f t="shared" si="41"/>
@@ -19241,7 +24722,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:M45"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21968,10 +27449,1299 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D610509E-B25D-476A-AED2-9B6F031A6F24}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>1366.09894712401</v>
+      </c>
+      <c r="D2">
+        <v>34213.666666666599</v>
+      </c>
+      <c r="E2">
+        <v>51.226395002129699</v>
+      </c>
+      <c r="F2">
+        <v>2.0453909532458199</v>
+      </c>
+      <c r="G2">
+        <v>9620.9999999999909</v>
+      </c>
+      <c r="H2">
+        <v>1119.5700067436601</v>
+      </c>
+      <c r="I2">
+        <v>34919</v>
+      </c>
+      <c r="J2">
+        <v>60.393077342678097</v>
+      </c>
+      <c r="K2">
+        <v>1.93631770691636</v>
+      </c>
+      <c r="L2">
+        <v>12178.666666666601</v>
+      </c>
+      <c r="M2">
+        <v>1316.0611687911701</v>
+      </c>
+      <c r="N2">
+        <v>38142</v>
+      </c>
+      <c r="O2">
+        <v>63.041934485332902</v>
+      </c>
+      <c r="P2">
+        <v>2.17521477588024</v>
+      </c>
+      <c r="Q2">
+        <v>11540.666666666601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>2101.2401893484998</v>
+      </c>
+      <c r="D3">
+        <v>34433.666666666599</v>
+      </c>
+      <c r="E3">
+        <v>52.397770836291301</v>
+      </c>
+      <c r="F3">
+        <v>3.19746087395538</v>
+      </c>
+      <c r="G3">
+        <v>9840.9999999999909</v>
+      </c>
+      <c r="H3">
+        <v>416.38443774953902</v>
+      </c>
+      <c r="I3">
+        <v>33178</v>
+      </c>
+      <c r="J3">
+        <v>51.759591384696698</v>
+      </c>
+      <c r="K3">
+        <v>0.64958371079820498</v>
+      </c>
+      <c r="L3">
+        <v>10437.666666666601</v>
+      </c>
+      <c r="M3">
+        <v>854.070254721472</v>
+      </c>
+      <c r="N3">
+        <v>38773</v>
+      </c>
+      <c r="O3">
+        <v>66.488829002713103</v>
+      </c>
+      <c r="P3">
+        <v>1.46457924644674</v>
+      </c>
+      <c r="Q3">
+        <v>12171.666666666601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>1629.82851858715</v>
+      </c>
+      <c r="D4">
+        <v>31452</v>
+      </c>
+      <c r="E4">
+        <v>36.522078659662</v>
+      </c>
+      <c r="F4">
+        <v>1.8925577183517901</v>
+      </c>
+      <c r="G4">
+        <v>6859.3333333333303</v>
+      </c>
+      <c r="H4">
+        <v>1594.0245711196901</v>
+      </c>
+      <c r="I4">
+        <v>34104.333333333299</v>
+      </c>
+      <c r="J4">
+        <v>56.353207597070899</v>
+      </c>
+      <c r="K4">
+        <v>2.6339291459875098</v>
+      </c>
+      <c r="L4">
+        <v>11364</v>
+      </c>
+      <c r="M4">
+        <v>678.96023447621701</v>
+      </c>
+      <c r="N4">
+        <v>36835</v>
+      </c>
+      <c r="O4">
+        <v>55.902328884356898</v>
+      </c>
+      <c r="P4">
+        <v>1.0304183066944299</v>
+      </c>
+      <c r="Q4">
+        <v>10233.666666666601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>1816.89322746274</v>
+      </c>
+      <c r="D5">
+        <v>33864</v>
+      </c>
+      <c r="E5">
+        <v>49.4729113853911</v>
+      </c>
+      <c r="F5">
+        <v>2.6543526352167999</v>
+      </c>
+      <c r="G5">
+        <v>11904.666666666601</v>
+      </c>
+      <c r="H5">
+        <v>13080.333188926499</v>
+      </c>
+      <c r="I5">
+        <v>43771.333333333299</v>
+      </c>
+      <c r="J5">
+        <v>79.007207696251399</v>
+      </c>
+      <c r="K5">
+        <v>23.6099867720202</v>
+      </c>
+      <c r="L5">
+        <v>17465.333333333299</v>
+      </c>
+      <c r="M5">
+        <v>644.28875514011497</v>
+      </c>
+      <c r="N5">
+        <v>35648</v>
+      </c>
+      <c r="O5">
+        <v>51.837235815136303</v>
+      </c>
+      <c r="P5">
+        <v>0.93688701002128605</v>
+      </c>
+      <c r="Q5">
+        <v>11822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>2216.3403017888099</v>
+      </c>
+      <c r="D6">
+        <v>31272.333333333299</v>
+      </c>
+      <c r="E6">
+        <v>38.702572414079697</v>
+      </c>
+      <c r="F6">
+        <v>2.74293798642756</v>
+      </c>
+      <c r="G6">
+        <v>9313</v>
+      </c>
+      <c r="H6">
+        <v>1053.1601650904399</v>
+      </c>
+      <c r="I6">
+        <v>37529.666666666599</v>
+      </c>
+      <c r="J6">
+        <v>50.772037757471502</v>
+      </c>
+      <c r="K6">
+        <v>1.4247685209026699</v>
+      </c>
+      <c r="L6">
+        <v>11223.666666666601</v>
+      </c>
+      <c r="M6">
+        <v>176.935958282462</v>
+      </c>
+      <c r="N6">
+        <v>35588.666666666599</v>
+      </c>
+      <c r="O6">
+        <v>51.577070361600697</v>
+      </c>
+      <c r="P6">
+        <v>0.25642540799032898</v>
+      </c>
+      <c r="Q6">
+        <v>11762.666666666601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>1115.53813620751</v>
+      </c>
+      <c r="D7">
+        <v>34361.666666666599</v>
+      </c>
+      <c r="E7">
+        <v>51.541093518403002</v>
+      </c>
+      <c r="F7">
+        <v>1.67326154343357</v>
+      </c>
+      <c r="G7">
+        <v>12402.333333333299</v>
+      </c>
+      <c r="H7">
+        <v>1323.2631383565899</v>
+      </c>
+      <c r="I7">
+        <v>37890.333333333299</v>
+      </c>
+      <c r="J7">
+        <v>52.403570674628298</v>
+      </c>
+      <c r="K7">
+        <v>1.83011621412673</v>
+      </c>
+      <c r="L7">
+        <v>11584.333333333299</v>
+      </c>
+      <c r="M7">
+        <v>1417.0292869238799</v>
+      </c>
+      <c r="N7">
+        <v>36698</v>
+      </c>
+      <c r="O7">
+        <v>56.441287380513899</v>
+      </c>
+      <c r="P7">
+        <v>2.17938190664001</v>
+      </c>
+      <c r="Q7">
+        <v>12872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>1431.75603135916</v>
+      </c>
+      <c r="D8">
+        <v>37599.666666666599</v>
+      </c>
+      <c r="E8">
+        <v>69.254933976998402</v>
+      </c>
+      <c r="F8">
+        <v>2.6371555445424399</v>
+      </c>
+      <c r="G8">
+        <v>13006.9999999999</v>
+      </c>
+      <c r="H8">
+        <v>2232.8884880351702</v>
+      </c>
+      <c r="I8">
+        <v>36637</v>
+      </c>
+      <c r="J8">
+        <v>68.912508058250793</v>
+      </c>
+      <c r="K8">
+        <v>4.1999603112945696</v>
+      </c>
+      <c r="L8">
+        <v>13896.666666666601</v>
+      </c>
+      <c r="M8">
+        <v>3549.3991510301198</v>
+      </c>
+      <c r="N8">
+        <v>38068.666666666599</v>
+      </c>
+      <c r="O8">
+        <v>62.641344525573999</v>
+      </c>
+      <c r="P8">
+        <v>5.8404760278389301</v>
+      </c>
+      <c r="Q8">
+        <v>11467.333333333299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>1324.5513705905601</v>
+      </c>
+      <c r="D9">
+        <v>33448.666666666599</v>
+      </c>
+      <c r="E9">
+        <v>47.1532017606133</v>
+      </c>
+      <c r="F9">
+        <v>1.86724447471011</v>
+      </c>
+      <c r="G9">
+        <v>8855.9999999999909</v>
+      </c>
+      <c r="H9">
+        <v>418.54549732774899</v>
+      </c>
+      <c r="I9">
+        <v>34441.666666666599</v>
+      </c>
+      <c r="J9">
+        <v>58.026017819065402</v>
+      </c>
+      <c r="K9">
+        <v>0.70514962940323</v>
+      </c>
+      <c r="L9">
+        <v>11701.333333333299</v>
+      </c>
+      <c r="M9">
+        <v>4642.3570521880301</v>
+      </c>
+      <c r="N9">
+        <v>36992</v>
+      </c>
+      <c r="O9">
+        <v>56.759955570931702</v>
+      </c>
+      <c r="P9">
+        <v>7.1231612247673697</v>
+      </c>
+      <c r="Q9">
+        <v>10390.666666666601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>70.500591014070096</v>
+      </c>
+      <c r="D10">
+        <v>34497.666666666599</v>
+      </c>
+      <c r="E10">
+        <v>52.7385347153201</v>
+      </c>
+      <c r="F10">
+        <v>0.10777824200611</v>
+      </c>
+      <c r="G10">
+        <v>9904.9999999999909</v>
+      </c>
+      <c r="H10">
+        <v>668.57235958421097</v>
+      </c>
+      <c r="I10">
+        <v>33011</v>
+      </c>
+      <c r="J10">
+        <v>50.9314511463378</v>
+      </c>
+      <c r="K10">
+        <v>1.03151556965723</v>
+      </c>
+      <c r="L10">
+        <v>10270.666666666601</v>
+      </c>
+      <c r="M10">
+        <v>2595.44967202217</v>
+      </c>
+      <c r="N10">
+        <v>35998</v>
+      </c>
+      <c r="O10">
+        <v>51.330140752744903</v>
+      </c>
+      <c r="P10">
+        <v>3.7008944102884498</v>
+      </c>
+      <c r="Q10">
+        <v>9396.6666666666606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>676.541449826492</v>
+      </c>
+      <c r="D11">
+        <v>36106.333333333299</v>
+      </c>
+      <c r="E11">
+        <v>61.303776799659197</v>
+      </c>
+      <c r="F11">
+        <v>1.1486778691424699</v>
+      </c>
+      <c r="G11">
+        <v>11513.666666666601</v>
+      </c>
+      <c r="H11">
+        <v>456.651216283645</v>
+      </c>
+      <c r="I11">
+        <v>36053.666666666599</v>
+      </c>
+      <c r="J11">
+        <v>66.019802634841298</v>
+      </c>
+      <c r="K11">
+        <v>0.83619853289096402</v>
+      </c>
+      <c r="L11">
+        <v>13313.333333333299</v>
+      </c>
+      <c r="M11">
+        <v>738.02709977344296</v>
+      </c>
+      <c r="N11">
+        <v>37972</v>
+      </c>
+      <c r="O11">
+        <v>52.773002804668401</v>
+      </c>
+      <c r="P11">
+        <v>1.0257006796130099</v>
+      </c>
+      <c r="Q11">
+        <v>11666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>4841.4790095589497</v>
+      </c>
+      <c r="D12">
+        <v>28641</v>
+      </c>
+      <c r="E12">
+        <v>21.555090160442901</v>
+      </c>
+      <c r="F12">
+        <v>3.6436757292320601</v>
+      </c>
+      <c r="G12">
+        <v>4048.3333333333298</v>
+      </c>
+      <c r="H12">
+        <v>1881.59675098925</v>
+      </c>
+      <c r="I12">
+        <v>32448.666666666599</v>
+      </c>
+      <c r="J12">
+        <v>48.142883118171099</v>
+      </c>
+      <c r="K12">
+        <v>2.7916553055617999</v>
+      </c>
+      <c r="L12">
+        <v>9708.3333333333303</v>
+      </c>
+      <c r="M12">
+        <v>1486.6776158042201</v>
+      </c>
+      <c r="N12">
+        <v>33728.333333333299</v>
+      </c>
+      <c r="O12">
+        <v>33.576103018788203</v>
+      </c>
+      <c r="P12">
+        <v>1.4799676073717101</v>
+      </c>
+      <c r="Q12">
+        <v>7422.3333333333303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>611.23018031943798</v>
+      </c>
+      <c r="D13">
+        <v>33816.333333333299</v>
+      </c>
+      <c r="E13">
+        <v>49.1108192531591</v>
+      </c>
+      <c r="F13">
+        <v>0.88767799311212003</v>
+      </c>
+      <c r="G13">
+        <v>9223.6666666666606</v>
+      </c>
+      <c r="H13">
+        <v>373.164842931377</v>
+      </c>
+      <c r="I13">
+        <v>37297</v>
+      </c>
+      <c r="J13">
+        <v>72.185397623022595</v>
+      </c>
+      <c r="K13">
+        <v>0.72223107933437802</v>
+      </c>
+      <c r="L13">
+        <v>14556.666666666601</v>
+      </c>
+      <c r="M13">
+        <v>162.391502240726</v>
+      </c>
+      <c r="N13">
+        <v>39121</v>
+      </c>
+      <c r="O13">
+        <v>57.970686691395997</v>
+      </c>
+      <c r="P13">
+        <v>0.24063666311552101</v>
+      </c>
+      <c r="Q13">
+        <v>12815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>979.67545646504698</v>
+      </c>
+      <c r="D14">
+        <v>33646</v>
+      </c>
+      <c r="E14">
+        <v>48.566956184460203</v>
+      </c>
+      <c r="F14">
+        <v>1.4141310993618501</v>
+      </c>
+      <c r="G14">
+        <v>11686.666666666601</v>
+      </c>
+      <c r="H14">
+        <v>1505.0854903736599</v>
+      </c>
+      <c r="I14">
+        <v>34232.333333333299</v>
+      </c>
+      <c r="J14">
+        <v>56.987949815693298</v>
+      </c>
+      <c r="K14">
+        <v>2.5055766885228099</v>
+      </c>
+      <c r="L14">
+        <v>11492</v>
+      </c>
+      <c r="M14">
+        <v>1551.2701247687301</v>
+      </c>
+      <c r="N14">
+        <v>38258</v>
+      </c>
+      <c r="O14">
+        <v>63.675594967133399</v>
+      </c>
+      <c r="P14">
+        <v>2.5818926276697201</v>
+      </c>
+      <c r="Q14">
+        <v>11656.666666666601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>6925.4838820114201</v>
+      </c>
+      <c r="D15">
+        <v>30562</v>
+      </c>
+      <c r="E15">
+        <v>35.750599121749801</v>
+      </c>
+      <c r="F15">
+        <v>8.1012433083544995</v>
+      </c>
+      <c r="G15">
+        <v>8602.6666666666606</v>
+      </c>
+      <c r="H15">
+        <v>327.623767961564</v>
+      </c>
+      <c r="I15">
+        <v>35438.333333333299</v>
+      </c>
+      <c r="J15">
+        <v>62.968411656776297</v>
+      </c>
+      <c r="K15">
+        <v>0.58213652700601004</v>
+      </c>
+      <c r="L15">
+        <v>12698</v>
+      </c>
+      <c r="M15">
+        <v>2071.8159506416901</v>
+      </c>
+      <c r="N15">
+        <v>38752.666666666599</v>
+      </c>
+      <c r="O15">
+        <v>66.377756332052599</v>
+      </c>
+      <c r="P15">
+        <v>3.5487233825600102</v>
+      </c>
+      <c r="Q15">
+        <v>12151.333333333299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>1749.3545476355901</v>
+      </c>
+      <c r="D16">
+        <v>31216.666666666599</v>
+      </c>
+      <c r="E16">
+        <v>38.471235229744103</v>
+      </c>
+      <c r="F16">
+        <v>2.1558941901434499</v>
+      </c>
+      <c r="G16">
+        <v>9257.3333333333303</v>
+      </c>
+      <c r="H16">
+        <v>558.83479967995299</v>
+      </c>
+      <c r="I16">
+        <v>30072.666666666599</v>
+      </c>
+      <c r="J16">
+        <v>36.360480684992602</v>
+      </c>
+      <c r="K16">
+        <v>0.67568008401420998</v>
+      </c>
+      <c r="L16">
+        <v>7332.3333333333303</v>
+      </c>
+      <c r="M16">
+        <v>643.35474921176399</v>
+      </c>
+      <c r="N16">
+        <v>33419.333333333299</v>
+      </c>
+      <c r="O16">
+        <v>37.243941076858597</v>
+      </c>
+      <c r="P16">
+        <v>0.71698217711783896</v>
+      </c>
+      <c r="Q16">
+        <v>6818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>323.21870820441802</v>
+      </c>
+      <c r="D17">
+        <v>35200.333333333299</v>
+      </c>
+      <c r="E17">
+        <v>55.026389062045403</v>
+      </c>
+      <c r="F17">
+        <v>0.50526676044132401</v>
+      </c>
+      <c r="G17">
+        <v>13241</v>
+      </c>
+      <c r="H17">
+        <v>409.34256232809901</v>
+      </c>
+      <c r="I17">
+        <v>40154.333333333299</v>
+      </c>
+      <c r="J17">
+        <v>62.645134051087098</v>
+      </c>
+      <c r="K17">
+        <v>0.63861898732040401</v>
+      </c>
+      <c r="L17">
+        <v>13848.333333333299</v>
+      </c>
+      <c r="M17">
+        <v>1182.4027796539201</v>
+      </c>
+      <c r="N17">
+        <v>38105.333333333299</v>
+      </c>
+      <c r="O17">
+        <v>62.8416395054535</v>
+      </c>
+      <c r="P17">
+        <v>1.9499666511054801</v>
+      </c>
+      <c r="Q17">
+        <v>11504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>1882.94990197119</v>
+      </c>
+      <c r="D18">
+        <v>33362.666666666599</v>
+      </c>
+      <c r="E18">
+        <v>47.3894914737702</v>
+      </c>
+      <c r="F18">
+        <v>2.67460749515427</v>
+      </c>
+      <c r="G18">
+        <v>11403.333333333299</v>
+      </c>
+      <c r="H18">
+        <v>579.70452243650095</v>
+      </c>
+      <c r="I18">
+        <v>36720.333333333299</v>
+      </c>
+      <c r="J18">
+        <v>47.110889954461797</v>
+      </c>
+      <c r="K18">
+        <v>0.743740415281539</v>
+      </c>
+      <c r="L18">
+        <v>10414.333333333299</v>
+      </c>
+      <c r="M18">
+        <v>1936.9724658170301</v>
+      </c>
+      <c r="N18">
+        <v>34686.666666666599</v>
+      </c>
+      <c r="O18">
+        <v>44.1668639268741</v>
+      </c>
+      <c r="P18">
+        <v>2.46636553895376</v>
+      </c>
+      <c r="Q18">
+        <v>8085.3333333333303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>601.18660441940403</v>
+      </c>
+      <c r="D19">
+        <v>31592.333333333299</v>
+      </c>
+      <c r="E19">
+        <v>40.032414910858897</v>
+      </c>
+      <c r="F19">
+        <v>0.76179721621178298</v>
+      </c>
+      <c r="G19">
+        <v>9633</v>
+      </c>
+      <c r="H19">
+        <v>1689.9202150792</v>
+      </c>
+      <c r="I19">
+        <v>36765.666666666599</v>
+      </c>
+      <c r="J19">
+        <v>47.315962483790202</v>
+      </c>
+      <c r="K19">
+        <v>2.1748606443680099</v>
+      </c>
+      <c r="L19">
+        <v>10459.666666666601</v>
+      </c>
+      <c r="M19">
+        <v>1561.76950924264</v>
+      </c>
+      <c r="N19">
+        <v>34292</v>
+      </c>
+      <c r="O19">
+        <v>42.010961597989699</v>
+      </c>
+      <c r="P19">
+        <v>1.91331619263104</v>
+      </c>
+      <c r="Q19">
+        <v>7690.6666666666597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>1706.58284299356</v>
+      </c>
+      <c r="D20">
+        <v>36289</v>
+      </c>
+      <c r="E20">
+        <v>59.550624056296598</v>
+      </c>
+      <c r="F20">
+        <v>2.8005200833320201</v>
+      </c>
+      <c r="G20">
+        <v>14329.666666666601</v>
+      </c>
+      <c r="H20">
+        <v>880.863780615368</v>
+      </c>
+      <c r="I20">
+        <v>38386</v>
+      </c>
+      <c r="J20">
+        <v>54.645797521035</v>
+      </c>
+      <c r="K20">
+        <v>1.25398592713804</v>
+      </c>
+      <c r="L20">
+        <v>12080</v>
+      </c>
+      <c r="M20">
+        <v>2046.8583243595499</v>
+      </c>
+      <c r="N20">
+        <v>36710</v>
+      </c>
+      <c r="O20">
+        <v>55.219505089313301</v>
+      </c>
+      <c r="P20">
+        <v>3.0789023061584202</v>
+      </c>
+      <c r="Q20">
+        <v>10108.666666666601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>586.97047058036401</v>
+      </c>
+      <c r="D21">
+        <v>40120.333333333299</v>
+      </c>
+      <c r="E21">
+        <v>71.4475722763015</v>
+      </c>
+      <c r="F21">
+        <v>1.04529577988331</v>
+      </c>
+      <c r="G21">
+        <v>16294.333333333299</v>
+      </c>
+      <c r="H21">
+        <v>934.79516472861496</v>
+      </c>
+      <c r="I21">
+        <v>41292</v>
+      </c>
+      <c r="J21">
+        <v>78.259547092908306</v>
+      </c>
+      <c r="K21">
+        <v>1.7716905506224401</v>
+      </c>
+      <c r="L21">
+        <v>17152.666666666599</v>
+      </c>
+      <c r="M21">
+        <v>2703.1883027269801</v>
+      </c>
+      <c r="N21">
+        <v>39846</v>
+      </c>
+      <c r="O21">
+        <v>72.350188459367402</v>
+      </c>
+      <c r="P21">
+        <v>4.9083015395135003</v>
+      </c>
+      <c r="Q21">
+        <v>13244.666666666601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <v>1097.03524707884</v>
+      </c>
+      <c r="D22">
+        <v>34185.333333333299</v>
+      </c>
+      <c r="E22">
+        <v>45.4237189043819</v>
+      </c>
+      <c r="F22">
+        <v>1.45768421227939</v>
+      </c>
+      <c r="G22">
+        <v>10359.333333333299</v>
+      </c>
+      <c r="H22">
+        <v>1787.0467257461401</v>
+      </c>
+      <c r="I22">
+        <v>37532</v>
+      </c>
+      <c r="J22">
+        <v>61.104436299484398</v>
+      </c>
+      <c r="K22">
+        <v>2.9094235004144999</v>
+      </c>
+      <c r="L22">
+        <v>13392.666666666601</v>
+      </c>
+      <c r="M22">
+        <v>730.05958660920203</v>
+      </c>
+      <c r="N22">
+        <v>37005</v>
+      </c>
+      <c r="O22">
+        <v>56.830969245616203</v>
+      </c>
+      <c r="P22">
+        <v>1.12119967339697</v>
+      </c>
+      <c r="Q22">
+        <v>10403.666666666601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>554.877764316911</v>
+      </c>
+      <c r="D23">
+        <v>28598.666666666599</v>
+      </c>
+      <c r="E23">
+        <v>20.927241369230298</v>
+      </c>
+      <c r="F23">
+        <v>0.40603504490695003</v>
+      </c>
+      <c r="G23">
+        <v>4772.6666666666597</v>
+      </c>
+      <c r="H23">
+        <v>2009.8557991391599</v>
+      </c>
+      <c r="I23">
+        <v>37376.666666666599</v>
+      </c>
+      <c r="J23">
+        <v>60.3957233890468</v>
+      </c>
+      <c r="K23">
+        <v>3.24765972255455</v>
+      </c>
+      <c r="L23">
+        <v>13237.333333333299</v>
+      </c>
+      <c r="M23">
+        <v>543.94515654919906</v>
+      </c>
+      <c r="N23">
+        <v>37981.666666666599</v>
+      </c>
+      <c r="O23">
+        <v>62.166099164223603</v>
+      </c>
+      <c r="P23">
+        <v>0.89029659595252097</v>
+      </c>
+      <c r="Q23">
+        <v>11380.333333333299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>2171.9881061675501</v>
+      </c>
+      <c r="D24">
+        <v>26190.666666666599</v>
+      </c>
+      <c r="E24">
+        <v>10.3686164459645</v>
+      </c>
+      <c r="F24">
+        <v>0.85986782561401898</v>
+      </c>
+      <c r="G24">
+        <v>2364.6666666666601</v>
+      </c>
+      <c r="H24">
+        <v>580.49375534970204</v>
+      </c>
+      <c r="I24">
+        <v>35663</v>
+      </c>
+      <c r="J24">
+        <v>52.577068726902198</v>
+      </c>
+      <c r="K24">
+        <v>0.85580742143282496</v>
+      </c>
+      <c r="L24">
+        <v>11523.666666666601</v>
+      </c>
+      <c r="M24">
+        <v>191.95572406156501</v>
+      </c>
+      <c r="N24">
+        <v>35693</v>
+      </c>
+      <c r="O24">
+        <v>49.664050692838501</v>
+      </c>
+      <c r="P24">
+        <v>0.26709155326181899</v>
+      </c>
+      <c r="Q24">
+        <v>9091.6666666666606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DC3F92-A542-408C-9D18-FE49F5F804E9}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
@@ -22741,4 +29511,1793 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83028DA-4C11-42CE-B059-FD98DE21D8AD}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1119.5700067436601</v>
+      </c>
+      <c r="D3">
+        <v>34919</v>
+      </c>
+      <c r="E3">
+        <v>60.393077342678097</v>
+      </c>
+      <c r="F3">
+        <v>1.93631770691636</v>
+      </c>
+      <c r="G3">
+        <v>12178.666666666601</v>
+      </c>
+      <c r="H3">
+        <v>1316.0611687911701</v>
+      </c>
+      <c r="I3">
+        <v>38142</v>
+      </c>
+      <c r="J3">
+        <v>63.041934485332902</v>
+      </c>
+      <c r="K3">
+        <v>2.17521477588024</v>
+      </c>
+      <c r="L3">
+        <v>11540.666666666601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>2101.2401893484998</v>
+      </c>
+      <c r="D4">
+        <v>34433.666666666599</v>
+      </c>
+      <c r="E4">
+        <v>52.397770836291301</v>
+      </c>
+      <c r="F4">
+        <v>3.19746087395538</v>
+      </c>
+      <c r="G4">
+        <v>9840.9999999999909</v>
+      </c>
+      <c r="H4">
+        <v>416.38443774953902</v>
+      </c>
+      <c r="I4">
+        <v>33178</v>
+      </c>
+      <c r="J4">
+        <v>51.759591384696698</v>
+      </c>
+      <c r="K4">
+        <v>0.64958371079820498</v>
+      </c>
+      <c r="L4">
+        <v>10437.666666666601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>1594.0245711196901</v>
+      </c>
+      <c r="D5">
+        <v>34104.333333333299</v>
+      </c>
+      <c r="E5">
+        <v>56.353207597070899</v>
+      </c>
+      <c r="F5">
+        <v>2.6339291459875098</v>
+      </c>
+      <c r="G5">
+        <v>11364</v>
+      </c>
+      <c r="H5">
+        <v>678.96023447621701</v>
+      </c>
+      <c r="I5">
+        <v>36835</v>
+      </c>
+      <c r="J5">
+        <v>55.902328884356898</v>
+      </c>
+      <c r="K5">
+        <v>1.0304183066944299</v>
+      </c>
+      <c r="L5">
+        <v>10233.666666666601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>1499.8080988357499</v>
+      </c>
+      <c r="D6">
+        <v>38931.333333333299</v>
+      </c>
+      <c r="E6">
+        <v>76.345307397415795</v>
+      </c>
+      <c r="F6">
+        <v>2.94116077048692</v>
+      </c>
+      <c r="G6">
+        <v>14338.666666666601</v>
+      </c>
+      <c r="H6">
+        <v>687.76909885028397</v>
+      </c>
+      <c r="I6">
+        <v>37485.333333333299</v>
+      </c>
+      <c r="J6">
+        <v>73.119328231151897</v>
+      </c>
+      <c r="K6">
+        <v>1.3415704227273999</v>
+      </c>
+      <c r="L6">
+        <v>14745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>1604.2160078991801</v>
+      </c>
+      <c r="D7">
+        <v>39826</v>
+      </c>
+      <c r="E7">
+        <v>81.108902456339607</v>
+      </c>
+      <c r="F7">
+        <v>3.2671169513281102</v>
+      </c>
+      <c r="G7">
+        <v>15233.333333333299</v>
+      </c>
+      <c r="H7">
+        <v>384.57422343850999</v>
+      </c>
+      <c r="I7">
+        <v>39821.333333333299</v>
+      </c>
+      <c r="J7">
+        <v>84.703373721010905</v>
+      </c>
+      <c r="K7">
+        <v>0.81802218671850202</v>
+      </c>
+      <c r="L7">
+        <v>17081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>1365.0175823043401</v>
+      </c>
+      <c r="D8">
+        <v>33179</v>
+      </c>
+      <c r="E8">
+        <v>45.717378957830398</v>
+      </c>
+      <c r="F8">
+        <v>1.8808591607435201</v>
+      </c>
+      <c r="G8">
+        <v>8586.3333333333303</v>
+      </c>
+      <c r="H8">
+        <v>1038.5119161569501</v>
+      </c>
+      <c r="I8">
+        <v>33890</v>
+      </c>
+      <c r="J8">
+        <v>55.290344975783903</v>
+      </c>
+      <c r="K8">
+        <v>1.6942957245730501</v>
+      </c>
+      <c r="L8">
+        <v>11149.666666666601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>1431.75603135916</v>
+      </c>
+      <c r="D9">
+        <v>37599.666666666599</v>
+      </c>
+      <c r="E9">
+        <v>69.254933976998402</v>
+      </c>
+      <c r="F9">
+        <v>2.6371555445424399</v>
+      </c>
+      <c r="G9">
+        <v>13006.9999999999</v>
+      </c>
+      <c r="H9">
+        <v>2232.8884880351702</v>
+      </c>
+      <c r="I9">
+        <v>36637</v>
+      </c>
+      <c r="J9">
+        <v>68.912508058250793</v>
+      </c>
+      <c r="K9">
+        <v>4.1999603112945696</v>
+      </c>
+      <c r="L9">
+        <v>13896.666666666601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>418.54549732774899</v>
+      </c>
+      <c r="D10">
+        <v>34441.666666666599</v>
+      </c>
+      <c r="E10">
+        <v>58.026017819065402</v>
+      </c>
+      <c r="F10">
+        <v>0.70514962940323</v>
+      </c>
+      <c r="G10">
+        <v>11701.333333333299</v>
+      </c>
+      <c r="H10">
+        <v>4642.3570521880301</v>
+      </c>
+      <c r="I10">
+        <v>36992</v>
+      </c>
+      <c r="J10">
+        <v>56.759955570931702</v>
+      </c>
+      <c r="K10">
+        <v>7.1231612247673697</v>
+      </c>
+      <c r="L10">
+        <v>10390.666666666601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>70.500591014070096</v>
+      </c>
+      <c r="D11">
+        <v>34497.666666666599</v>
+      </c>
+      <c r="E11">
+        <v>52.7385347153201</v>
+      </c>
+      <c r="F11">
+        <v>0.10777824200611</v>
+      </c>
+      <c r="G11">
+        <v>9904.9999999999909</v>
+      </c>
+      <c r="H11">
+        <v>2595.44967202217</v>
+      </c>
+      <c r="I11">
+        <v>35998</v>
+      </c>
+      <c r="J11">
+        <v>51.330140752744903</v>
+      </c>
+      <c r="K11">
+        <v>3.7008944102884498</v>
+      </c>
+      <c r="L11">
+        <v>9396.6666666666606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <v>676.541449826492</v>
+      </c>
+      <c r="D12">
+        <v>36106.333333333299</v>
+      </c>
+      <c r="E12">
+        <v>61.303776799659197</v>
+      </c>
+      <c r="F12">
+        <v>1.1486778691424699</v>
+      </c>
+      <c r="G12">
+        <v>11513.666666666601</v>
+      </c>
+      <c r="H12">
+        <v>456.651216283645</v>
+      </c>
+      <c r="I12">
+        <v>36053.666666666599</v>
+      </c>
+      <c r="J12">
+        <v>66.019802634841298</v>
+      </c>
+      <c r="K12">
+        <v>0.83619853289096402</v>
+      </c>
+      <c r="L12">
+        <v>13313.333333333299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>4841.4790095589497</v>
+      </c>
+      <c r="D13">
+        <v>28641</v>
+      </c>
+      <c r="E13">
+        <v>21.555090160442901</v>
+      </c>
+      <c r="F13">
+        <v>3.6436757292320601</v>
+      </c>
+      <c r="G13">
+        <v>4048.3333333333298</v>
+      </c>
+      <c r="H13">
+        <v>1486.6776158042201</v>
+      </c>
+      <c r="I13">
+        <v>33728.333333333299</v>
+      </c>
+      <c r="J13">
+        <v>33.576103018788203</v>
+      </c>
+      <c r="K13">
+        <v>1.4799676073717101</v>
+      </c>
+      <c r="L13">
+        <v>7422.3333333333303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>611.23018031943798</v>
+      </c>
+      <c r="D14">
+        <v>33816.333333333299</v>
+      </c>
+      <c r="E14">
+        <v>49.1108192531591</v>
+      </c>
+      <c r="F14">
+        <v>0.88767799311212003</v>
+      </c>
+      <c r="G14">
+        <v>9223.6666666666606</v>
+      </c>
+      <c r="H14">
+        <v>162.391502240726</v>
+      </c>
+      <c r="I14">
+        <v>39121</v>
+      </c>
+      <c r="J14">
+        <v>57.970686691395997</v>
+      </c>
+      <c r="K14">
+        <v>0.24063666311552101</v>
+      </c>
+      <c r="L14">
+        <v>12815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>1505.0854903736599</v>
+      </c>
+      <c r="D15">
+        <v>34232.333333333299</v>
+      </c>
+      <c r="E15">
+        <v>56.987949815693298</v>
+      </c>
+      <c r="F15">
+        <v>2.5055766885228099</v>
+      </c>
+      <c r="G15">
+        <v>11492</v>
+      </c>
+      <c r="H15">
+        <v>1551.2701247687301</v>
+      </c>
+      <c r="I15">
+        <v>38258</v>
+      </c>
+      <c r="J15">
+        <v>63.675594967133399</v>
+      </c>
+      <c r="K15">
+        <v>2.5818926276697201</v>
+      </c>
+      <c r="L15">
+        <v>11656.666666666601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>327.623767961564</v>
+      </c>
+      <c r="D16">
+        <v>35438.333333333299</v>
+      </c>
+      <c r="E16">
+        <v>62.968411656776297</v>
+      </c>
+      <c r="F16">
+        <v>0.58213652700601004</v>
+      </c>
+      <c r="G16">
+        <v>12698</v>
+      </c>
+      <c r="H16">
+        <v>2071.8159506416901</v>
+      </c>
+      <c r="I16">
+        <v>38752.666666666599</v>
+      </c>
+      <c r="J16">
+        <v>66.377756332052599</v>
+      </c>
+      <c r="K16">
+        <v>3.5487233825600102</v>
+      </c>
+      <c r="L16">
+        <v>12151.333333333299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>558.83479967995299</v>
+      </c>
+      <c r="D17">
+        <v>30072.666666666599</v>
+      </c>
+      <c r="E17">
+        <v>36.360480684992602</v>
+      </c>
+      <c r="F17">
+        <v>0.67568008401420998</v>
+      </c>
+      <c r="G17">
+        <v>7332.3333333333303</v>
+      </c>
+      <c r="H17">
+        <v>643.35474921176399</v>
+      </c>
+      <c r="I17">
+        <v>33419.333333333299</v>
+      </c>
+      <c r="J17">
+        <v>37.243941076858597</v>
+      </c>
+      <c r="K17">
+        <v>0.71698217711783896</v>
+      </c>
+      <c r="L17">
+        <v>6818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>818.53710972685894</v>
+      </c>
+      <c r="D18">
+        <v>39659</v>
+      </c>
+      <c r="E18">
+        <v>80.219721709498799</v>
+      </c>
+      <c r="F18">
+        <v>1.6556851950675999</v>
+      </c>
+      <c r="G18">
+        <v>15066.333333333299</v>
+      </c>
+      <c r="H18">
+        <v>982.01374735794798</v>
+      </c>
+      <c r="I18">
+        <v>39097</v>
+      </c>
+      <c r="J18">
+        <v>81.111460072400206</v>
+      </c>
+      <c r="K18">
+        <v>2.0373064137752799</v>
+      </c>
+      <c r="L18">
+        <v>16356.666666666601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>755.76208778512705</v>
+      </c>
+      <c r="D19">
+        <v>31686.666666666599</v>
+      </c>
+      <c r="E19">
+        <v>37.7715462161011</v>
+      </c>
+      <c r="F19">
+        <v>0.90089320304501297</v>
+      </c>
+      <c r="G19">
+        <v>7094</v>
+      </c>
+      <c r="H19">
+        <v>719.43797508888804</v>
+      </c>
+      <c r="I19">
+        <v>32408</v>
+      </c>
+      <c r="J19">
+        <v>37.726035313978002</v>
+      </c>
+      <c r="K19">
+        <v>0.83749513868243197</v>
+      </c>
+      <c r="L19">
+        <v>8268.6666666666606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <v>1011.62361248308</v>
+      </c>
+      <c r="D20">
+        <v>31582.333333333299</v>
+      </c>
+      <c r="E20">
+        <v>37.216030100809299</v>
+      </c>
+      <c r="F20">
+        <v>1.1920783184542001</v>
+      </c>
+      <c r="G20">
+        <v>6989.6666666666597</v>
+      </c>
+      <c r="H20">
+        <v>462.30004686711101</v>
+      </c>
+      <c r="I20">
+        <v>32430.333333333299</v>
+      </c>
+      <c r="J20">
+        <v>37.728375573679401</v>
+      </c>
+      <c r="K20">
+        <v>0.53782456124200495</v>
+      </c>
+      <c r="L20">
+        <v>8604.3333333333303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>523.89534578323196</v>
+      </c>
+      <c r="D21">
+        <v>33492.333333333299</v>
+      </c>
+      <c r="E21">
+        <v>42.385044871232701</v>
+      </c>
+      <c r="F21">
+        <v>0.66299733487819901</v>
+      </c>
+      <c r="G21">
+        <v>9666.3333333333303</v>
+      </c>
+      <c r="H21">
+        <v>277.49294285320798</v>
+      </c>
+      <c r="I21">
+        <v>34751.333333333299</v>
+      </c>
+      <c r="J21">
+        <v>48.417562696759099</v>
+      </c>
+      <c r="K21">
+        <v>0.38661917888531999</v>
+      </c>
+      <c r="L21">
+        <v>10612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22">
+        <v>409.34256232809901</v>
+      </c>
+      <c r="D22">
+        <v>40154.333333333299</v>
+      </c>
+      <c r="E22">
+        <v>62.645134051087098</v>
+      </c>
+      <c r="F22">
+        <v>0.63861898732040401</v>
+      </c>
+      <c r="G22">
+        <v>13848.333333333299</v>
+      </c>
+      <c r="H22">
+        <v>1182.4027796539201</v>
+      </c>
+      <c r="I22">
+        <v>38105.333333333299</v>
+      </c>
+      <c r="J22">
+        <v>62.8416395054535</v>
+      </c>
+      <c r="K22">
+        <v>1.9499666511054801</v>
+      </c>
+      <c r="L22">
+        <v>11504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>1882.94990197119</v>
+      </c>
+      <c r="D23">
+        <v>33362.666666666599</v>
+      </c>
+      <c r="E23">
+        <v>47.3894914737702</v>
+      </c>
+      <c r="F23">
+        <v>2.67460749515427</v>
+      </c>
+      <c r="G23">
+        <v>11403.333333333299</v>
+      </c>
+      <c r="H23">
+        <v>579.70452243650095</v>
+      </c>
+      <c r="I23">
+        <v>36720.333333333299</v>
+      </c>
+      <c r="J23">
+        <v>47.110889954461797</v>
+      </c>
+      <c r="K23">
+        <v>0.743740415281539</v>
+      </c>
+      <c r="L23">
+        <v>10414.333333333299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>601.18660441940403</v>
+      </c>
+      <c r="D24">
+        <v>31592.333333333299</v>
+      </c>
+      <c r="E24">
+        <v>40.032414910858897</v>
+      </c>
+      <c r="F24">
+        <v>0.76179721621178298</v>
+      </c>
+      <c r="G24">
+        <v>9633</v>
+      </c>
+      <c r="H24">
+        <v>1561.76950924264</v>
+      </c>
+      <c r="I24">
+        <v>34292</v>
+      </c>
+      <c r="J24">
+        <v>42.010961597989699</v>
+      </c>
+      <c r="K24">
+        <v>1.91331619263104</v>
+      </c>
+      <c r="L24">
+        <v>7690.6666666666597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25">
+        <v>880.863780615368</v>
+      </c>
+      <c r="D25">
+        <v>38386</v>
+      </c>
+      <c r="E25">
+        <v>54.645797521035</v>
+      </c>
+      <c r="F25">
+        <v>1.25398592713804</v>
+      </c>
+      <c r="G25">
+        <v>12080</v>
+      </c>
+      <c r="H25">
+        <v>2046.8583243595499</v>
+      </c>
+      <c r="I25">
+        <v>36710</v>
+      </c>
+      <c r="J25">
+        <v>55.219505089313301</v>
+      </c>
+      <c r="K25">
+        <v>3.0789023061584202</v>
+      </c>
+      <c r="L25">
+        <v>10108.666666666601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>742.61968732319497</v>
+      </c>
+      <c r="D26">
+        <v>36447</v>
+      </c>
+      <c r="E26">
+        <v>55.340699815837901</v>
+      </c>
+      <c r="F26">
+        <v>1.12758507403858</v>
+      </c>
+      <c r="G26">
+        <v>12621</v>
+      </c>
+      <c r="H26">
+        <v>1334.46668498442</v>
+      </c>
+      <c r="I26">
+        <v>36007.666666666599</v>
+      </c>
+      <c r="J26">
+        <v>54.149620549632701</v>
+      </c>
+      <c r="K26">
+        <v>2.00681886157669</v>
+      </c>
+      <c r="L26">
+        <v>11868.333333333299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>1385.72868917403</v>
+      </c>
+      <c r="D27">
+        <v>40396</v>
+      </c>
+      <c r="E27">
+        <v>75.354613157559299</v>
+      </c>
+      <c r="F27">
+        <v>2.5849353726616799</v>
+      </c>
+      <c r="G27">
+        <v>13794.666666666601</v>
+      </c>
+      <c r="H27">
+        <v>3430.8102541528001</v>
+      </c>
+      <c r="I27">
+        <v>41693</v>
+      </c>
+      <c r="J27">
+        <v>80.089121408909094</v>
+      </c>
+      <c r="K27">
+        <v>6.5903288076121598</v>
+      </c>
+      <c r="L27">
+        <v>17553.666666666599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28">
+        <v>2618.3938461074399</v>
+      </c>
+      <c r="D28">
+        <v>31376.666666666599</v>
+      </c>
+      <c r="E28">
+        <v>33.108246367914802</v>
+      </c>
+      <c r="F28">
+        <v>2.76289477993702</v>
+      </c>
+      <c r="G28">
+        <v>7550.6666666666597</v>
+      </c>
+      <c r="H28">
+        <v>3476.8202426930202</v>
+      </c>
+      <c r="I28">
+        <v>31821</v>
+      </c>
+      <c r="J28">
+        <v>35.047830517238701</v>
+      </c>
+      <c r="K28">
+        <v>3.82938960450049</v>
+      </c>
+      <c r="L28">
+        <v>7681.6666666666597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>781.36888428790905</v>
+      </c>
+      <c r="D29">
+        <v>32922.333333333299</v>
+      </c>
+      <c r="E29">
+        <v>39.885702592884897</v>
+      </c>
+      <c r="F29">
+        <v>0.946635422784184</v>
+      </c>
+      <c r="G29">
+        <v>9096.3333333333303</v>
+      </c>
+      <c r="H29">
+        <v>1785.14042398163</v>
+      </c>
+      <c r="I29">
+        <v>36852.666666666599</v>
+      </c>
+      <c r="J29">
+        <v>58.004957948686702</v>
+      </c>
+      <c r="K29">
+        <v>2.8097558356398098</v>
+      </c>
+      <c r="L29">
+        <v>12713.333333333299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30">
+        <v>586.97047058036401</v>
+      </c>
+      <c r="D30">
+        <v>40120.333333333299</v>
+      </c>
+      <c r="E30">
+        <v>71.4475722763015</v>
+      </c>
+      <c r="F30">
+        <v>1.04529577988331</v>
+      </c>
+      <c r="G30">
+        <v>16294.333333333299</v>
+      </c>
+      <c r="H30">
+        <v>2703.1883027269801</v>
+      </c>
+      <c r="I30">
+        <v>39846</v>
+      </c>
+      <c r="J30">
+        <v>72.350188459367402</v>
+      </c>
+      <c r="K30">
+        <v>4.9083015395135003</v>
+      </c>
+      <c r="L30">
+        <v>13244.666666666601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>1787.0467257461401</v>
+      </c>
+      <c r="D31">
+        <v>37532</v>
+      </c>
+      <c r="E31">
+        <v>61.104436299484398</v>
+      </c>
+      <c r="F31">
+        <v>2.9094235004144999</v>
+      </c>
+      <c r="G31">
+        <v>13392.666666666601</v>
+      </c>
+      <c r="H31">
+        <v>730.05958660920203</v>
+      </c>
+      <c r="I31">
+        <v>37005</v>
+      </c>
+      <c r="J31">
+        <v>56.830969245616203</v>
+      </c>
+      <c r="K31">
+        <v>1.12119967339697</v>
+      </c>
+      <c r="L31">
+        <v>10403.666666666601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32">
+        <v>2009.8557991391599</v>
+      </c>
+      <c r="D32">
+        <v>37376.666666666599</v>
+      </c>
+      <c r="E32">
+        <v>60.3957233890468</v>
+      </c>
+      <c r="F32">
+        <v>3.24765972255455</v>
+      </c>
+      <c r="G32">
+        <v>13237.333333333299</v>
+      </c>
+      <c r="H32">
+        <v>543.94515654919906</v>
+      </c>
+      <c r="I32">
+        <v>37981.666666666599</v>
+      </c>
+      <c r="J32">
+        <v>62.166099164223603</v>
+      </c>
+      <c r="K32">
+        <v>0.89029659595252097</v>
+      </c>
+      <c r="L32">
+        <v>11380.333333333299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33">
+        <v>580.49375534970204</v>
+      </c>
+      <c r="D33">
+        <v>35663</v>
+      </c>
+      <c r="E33">
+        <v>52.577068726902198</v>
+      </c>
+      <c r="F33">
+        <v>0.85580742143282496</v>
+      </c>
+      <c r="G33">
+        <v>11523.666666666601</v>
+      </c>
+      <c r="H33">
+        <v>191.95572406156501</v>
+      </c>
+      <c r="I33">
+        <v>35693</v>
+      </c>
+      <c r="J33">
+        <v>49.664050692838501</v>
+      </c>
+      <c r="K33">
+        <v>0.26709155326181899</v>
+      </c>
+      <c r="L33">
+        <v>9091.6666666666606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7202B6A9-1612-4B41-BD32-CBF702F3D098}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>1816.89322746274</v>
+      </c>
+      <c r="D2">
+        <v>33864</v>
+      </c>
+      <c r="E2">
+        <v>49.4729113853911</v>
+      </c>
+      <c r="F2">
+        <v>2.6543526352167999</v>
+      </c>
+      <c r="G2">
+        <v>11904.666666666601</v>
+      </c>
+      <c r="H2">
+        <v>644.28875514011497</v>
+      </c>
+      <c r="I2">
+        <v>35648</v>
+      </c>
+      <c r="J2">
+        <v>51.837235815136303</v>
+      </c>
+      <c r="K2">
+        <v>0.93688701002128605</v>
+      </c>
+      <c r="L2">
+        <v>11822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>1053.1601650904399</v>
+      </c>
+      <c r="D3">
+        <v>37529.666666666599</v>
+      </c>
+      <c r="E3">
+        <v>50.772037757471502</v>
+      </c>
+      <c r="F3">
+        <v>1.4247685209026699</v>
+      </c>
+      <c r="G3">
+        <v>11223.666666666601</v>
+      </c>
+      <c r="H3">
+        <v>176.935958282462</v>
+      </c>
+      <c r="I3">
+        <v>35588.666666666599</v>
+      </c>
+      <c r="J3">
+        <v>51.577070361600697</v>
+      </c>
+      <c r="K3">
+        <v>0.25642540799032898</v>
+      </c>
+      <c r="L3">
+        <v>11762.666666666601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>1115.53813620751</v>
+      </c>
+      <c r="D4">
+        <v>34361.666666666599</v>
+      </c>
+      <c r="E4">
+        <v>51.541093518403002</v>
+      </c>
+      <c r="F4">
+        <v>1.67326154343357</v>
+      </c>
+      <c r="G4">
+        <v>12402.333333333299</v>
+      </c>
+      <c r="H4">
+        <v>1323.2631383565899</v>
+      </c>
+      <c r="I4">
+        <v>37890.333333333299</v>
+      </c>
+      <c r="J4">
+        <v>52.403570674628298</v>
+      </c>
+      <c r="K4">
+        <v>1.83011621412673</v>
+      </c>
+      <c r="L4">
+        <v>11584.333333333299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>2296.4059600456799</v>
+      </c>
+      <c r="D5">
+        <v>34928.333333333299</v>
+      </c>
+      <c r="E5">
+        <v>48.681633488263302</v>
+      </c>
+      <c r="F5">
+        <v>3.2006334862969101</v>
+      </c>
+      <c r="G5">
+        <v>11102.333333333299</v>
+      </c>
+      <c r="H5">
+        <v>1208.26707864335</v>
+      </c>
+      <c r="I5">
+        <v>35707.666666666599</v>
+      </c>
+      <c r="J5">
+        <v>52.780861709731802</v>
+      </c>
+      <c r="K5">
+        <v>1.7859855750762099</v>
+      </c>
+      <c r="L5">
+        <v>11568.333333333299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>1439.4689993188399</v>
+      </c>
+      <c r="D6">
+        <v>33584</v>
+      </c>
+      <c r="E6">
+        <v>42.786985880908503</v>
+      </c>
+      <c r="F6">
+        <v>1.83392507592487</v>
+      </c>
+      <c r="G6">
+        <v>9758</v>
+      </c>
+      <c r="H6">
+        <v>544.87093272933203</v>
+      </c>
+      <c r="I6">
+        <v>40117.666666666599</v>
+      </c>
+      <c r="J6">
+        <v>72.9016166562742</v>
+      </c>
+      <c r="K6">
+        <v>0.99013664466146301</v>
+      </c>
+      <c r="L6">
+        <v>15978.333333333299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>1406.5810795447701</v>
+      </c>
+      <c r="D7">
+        <v>35060.333333333299</v>
+      </c>
+      <c r="E7">
+        <v>49.2604285421965</v>
+      </c>
+      <c r="F7">
+        <v>1.9762729035963</v>
+      </c>
+      <c r="G7">
+        <v>11234.333333333299</v>
+      </c>
+      <c r="H7">
+        <v>1208.26707864335</v>
+      </c>
+      <c r="I7">
+        <v>35707.666666666599</v>
+      </c>
+      <c r="J7">
+        <v>52.780861709731802</v>
+      </c>
+      <c r="K7">
+        <v>1.7859855750762099</v>
+      </c>
+      <c r="L7">
+        <v>11568.333333333299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>240.326860754265</v>
+      </c>
+      <c r="D8">
+        <v>38570</v>
+      </c>
+      <c r="E8">
+        <v>64.649653599929806</v>
+      </c>
+      <c r="F8">
+        <v>0.40282728282400299</v>
+      </c>
+      <c r="G8">
+        <v>14744</v>
+      </c>
+      <c r="H8">
+        <v>633.19191403554703</v>
+      </c>
+      <c r="I8">
+        <v>38183</v>
+      </c>
+      <c r="J8">
+        <v>64.074642982069193</v>
+      </c>
+      <c r="K8">
+        <v>1.0625552164827401</v>
+      </c>
+      <c r="L8">
+        <v>14043.666666666601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>731.362427254777</v>
+      </c>
+      <c r="D9">
+        <v>37523</v>
+      </c>
+      <c r="E9">
+        <v>60.058756467596197</v>
+      </c>
+      <c r="F9">
+        <v>1.1706078380738401</v>
+      </c>
+      <c r="G9">
+        <v>13697</v>
+      </c>
+      <c r="H9">
+        <v>2098.3196451764202</v>
+      </c>
+      <c r="I9">
+        <v>36237.666666666599</v>
+      </c>
+      <c r="J9">
+        <v>55.199002326890003</v>
+      </c>
+      <c r="K9">
+        <v>3.1962640432143101</v>
+      </c>
+      <c r="L9">
+        <v>12098.333333333299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>556.01918432130901</v>
+      </c>
+      <c r="D10">
+        <v>37622.333333333299</v>
+      </c>
+      <c r="E10">
+        <v>60.494314361717599</v>
+      </c>
+      <c r="F10">
+        <v>0.89404341377406404</v>
+      </c>
+      <c r="G10">
+        <v>13796.333333333299</v>
+      </c>
+      <c r="H10">
+        <v>1029.86601070236</v>
+      </c>
+      <c r="I10">
+        <v>39615</v>
+      </c>
+      <c r="J10">
+        <v>70.608185177862595</v>
+      </c>
+      <c r="K10">
+        <v>1.83559182107936</v>
+      </c>
+      <c r="L10">
+        <v>15475.666666666601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>774.81438637478402</v>
+      </c>
+      <c r="D11">
+        <v>29596.666666666599</v>
+      </c>
+      <c r="E11">
+        <v>25.303282761846301</v>
+      </c>
+      <c r="F11">
+        <v>0.66241741771779195</v>
+      </c>
+      <c r="G11">
+        <v>5770.6666666666597</v>
+      </c>
+      <c r="H11">
+        <v>2008.8564740501799</v>
+      </c>
+      <c r="I11">
+        <v>36955.666666666599</v>
+      </c>
+      <c r="J11">
+        <v>58.474898483719301</v>
+      </c>
+      <c r="K11">
+        <v>3.1786107242492401</v>
+      </c>
+      <c r="L11">
+        <v>12816.333333333299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12">
+        <v>666.289226487517</v>
+      </c>
+      <c r="D12">
+        <v>29109.666666666599</v>
+      </c>
+      <c r="E12">
+        <v>23.167879797714001</v>
+      </c>
+      <c r="F12">
+        <v>0.53028806157546704</v>
+      </c>
+      <c r="G12">
+        <v>5283.6666666666597</v>
+      </c>
+      <c r="H12">
+        <v>1135.5092836843401</v>
+      </c>
+      <c r="I12">
+        <v>37237.666666666599</v>
+      </c>
+      <c r="J12">
+        <v>59.761531793226098</v>
+      </c>
+      <c r="K12">
+        <v>1.82234227417772</v>
+      </c>
+      <c r="L12">
+        <v>13098.333333333299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>1634.6745853533</v>
+      </c>
+      <c r="D13">
+        <v>33531</v>
+      </c>
+      <c r="E13">
+        <v>42.5545908971323</v>
+      </c>
+      <c r="F13">
+        <v>2.07458495808801</v>
+      </c>
+      <c r="G13">
+        <v>9705</v>
+      </c>
+      <c r="H13">
+        <v>641.97066391957003</v>
+      </c>
+      <c r="I13">
+        <v>38074.666666666599</v>
+      </c>
+      <c r="J13">
+        <v>63.580368956549499</v>
+      </c>
+      <c r="K13">
+        <v>1.07201809614321</v>
+      </c>
+      <c r="L13">
+        <v>13935.333333333299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>442.21751812126701</v>
+      </c>
+      <c r="D14">
+        <v>34709.333333333299</v>
+      </c>
+      <c r="E14">
+        <v>47.721359876055999</v>
+      </c>
+      <c r="F14">
+        <v>0.60799846321147</v>
+      </c>
+      <c r="G14">
+        <v>10883.333333333299</v>
+      </c>
+      <c r="H14">
+        <v>313.16821890692</v>
+      </c>
+      <c r="I14">
+        <v>35696.333333333299</v>
+      </c>
+      <c r="J14">
+        <v>52.729153042446697</v>
+      </c>
+      <c r="K14">
+        <v>0.46259919159129698</v>
+      </c>
+      <c r="L14">
+        <v>11557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CHIP2/2024-3-24_gblockOrder/compiledToxgreen.xlsx
+++ b/CHIP2/2024-3-24_gblockOrder/compiledToxgreen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Sequence-Design\CHIP2\2024-3-24_gblockOrder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6FA2B7-C64A-4CB5-9A4B-3A6582C96439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB532F-AB8C-4E3F-B706-56951E1917E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="3636" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{86645FBF-7AD1-41F9-9DDC-DAB6499620F5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" firstSheet="2" activeTab="8" xr2:uid="{86645FBF-7AD1-41F9-9DDC-DAB6499620F5}"/>
   </bookViews>
   <sheets>
     <sheet name="all data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="238">
   <si>
     <t>Sample Name</t>
   </si>
@@ -2743,6 +2743,15 @@
   <si>
     <t>WT-NoTM</t>
   </si>
+  <si>
+    <t>VDWDiff</t>
+  </si>
+  <si>
+    <t>IMM1Diff</t>
+  </si>
+  <si>
+    <t>HBONDDiff</t>
+  </si>
 </sst>
 </file>
 
@@ -6313,6 +6322,2316 @@
         <c:crossAx val="1806553696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Energy vs PercentGpA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$M$64:$M$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-39.406999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-32.714599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-34.741399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-13.526199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16.902699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15.533799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17.161300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23.201699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-18.1189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AQ$64:$AQ$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.7175059140055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.732317814283846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.083721017624597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.661789717250244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.331772391413352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.665590890949503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.743386778270299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.745160182735304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.898880367834451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E789-4F79-A2CE-2A90BE863FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1467007280"/>
+        <c:axId val="1467013520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1467007280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467013520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1467013520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467007280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vdw vs PercentGpA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19425517287224736"/>
+                  <c:y val="-0.25524984941156775"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$O$64:$O$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-94.618700000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-97.186099999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-92.898499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-83.490700000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-91.142300000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60.933399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-63.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-74.840299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-68.884299999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AQ$64:$AQ$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.7175059140055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.732317814283846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.083721017624597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.661789717250244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.331772391413352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.665590890949503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.743386778270299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.745160182735304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.898880367834451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-286F-4829-A229-EB66882257FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1563066192"/>
+        <c:axId val="1563064752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1563066192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563064752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1563064752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563066192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TotalPreOptimize vs PercentGpA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.51189721256184006"/>
+                  <c:y val="-0.26289919583047472"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$N$64:$N$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-33.625399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.657400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16.4055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3326799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15.495699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11.8756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14.0275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.6577</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.6033399999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AQ$64:$AQ$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.7175059140055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.732317814283846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.083721017624597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.661789717250244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.331772391413352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.665590890949503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.743386778270299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.745160182735304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.898880367834451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C5F-4737-AC2F-048094B8B3F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1563092752"/>
+        <c:axId val="1563093712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1563092752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563093712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1563093712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563092752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VDWDiff vs PercentGpA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AQ$64:$AQ$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.7175059140055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.732317814283846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.083721017624597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.661789717250244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.331772391413352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.665590890949503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.743386778270299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.745160182735304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.898880367834451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AT$64:$AT$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-34.854100000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-39.551599999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-34.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-25.606600000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.773900000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-27.080799999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-23.050799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-30.3431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-24.981199999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A93B-4D0A-94B9-EB15B4B11CA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1118235472"/>
+        <c:axId val="1118236912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1118235472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118236912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1118236912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118235472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IMM1Diff vs PercentGpA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AQ$64:$AQ$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.7175059140055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.732317814283846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.083721017624597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.661789717250244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.331772391413352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.665590890949503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.743386778270299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.745160182735304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.898880367834451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AU$64:$AU$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4.7090000000000032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.21699999999998454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.359999999999985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.081999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.546999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8900000000000148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1409999999999911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.451999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E67-4A0A-9B88-5481E64DAECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1476603952"/>
+        <c:axId val="1476602032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1476603952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1476602032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1476602032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1476603952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HBONDDiff vs PercentGpA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AQ$64:$AQ$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.7175059140055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.732317814283846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.083721017624597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.661789717250244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.331772391413352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.665590890949503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.743386778270299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.745160182735304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.898880367834451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'best good clash data'!$AV$64:$AV$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.15640000000000498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0541000000000054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.2797000000000054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2105999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.5892999999999944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E291-4168-A50C-699ED57630A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1466143472"/>
+        <c:axId val="1466143952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1466143472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1466143952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1466143952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1466143472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13362,6 +15681,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16204,6 +18763,3102 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -20747,6 +26402,222 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>290649</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>128996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>120287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCAE7E3-89FB-06D7-0D34-053F25F9306C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>67491</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>81099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9B56B1-92C1-B388-848D-37FA34E64B15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>523603</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>145324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>509451</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8561D441-1C18-BEC9-17A1-C0B146C26E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>542109</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>135527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>523602</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>135527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F90C70-43E4-0251-4B1E-42874C10B7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>85997</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>75111</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43FA224-2D18-8423-97B5-8271A8E0BEFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>340723</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>174716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>168184</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B3CB6D-79E7-6DF2-766F-5727E71CC0A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32986,7 +38857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9146C4A9-15CE-4D67-93E1-84E01EE71707}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -35825,16 +41696,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83028DA-4C11-42CE-B059-FD98DE21D8AD}">
-  <dimension ref="A1:AS72"/>
+  <dimension ref="A1:AV72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="AC67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG70" sqref="AG70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.4609375" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
@@ -38507,7 +44379,7 @@
         <v>9650.8333333333248</v>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -38605,7 +44477,7 @@
         <v>12413.499999999949</v>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -38703,7 +44575,7 @@
         <v>11019.33333333333</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -38801,7 +44673,7 @@
         <v>11574.333333333299</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -38899,7 +44771,7 @@
         <v>7075.1666666666652</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -38997,7 +44869,7 @@
         <v>15711.499999999949</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -39095,7 +44967,7 @@
         <v>7796.9999999999945</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -39193,7 +45065,7 @@
         <v>12676.16666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -39291,7 +45163,7 @@
         <v>8661.8333333333303</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -39389,7 +45261,7 @@
         <v>12244.66666666665</v>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -39487,7 +45359,7 @@
         <v>7616.1666666666597</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -39576,7 +45448,7 @@
         <v>14769.499999999949</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -39674,7 +45546,7 @@
         <v>12308.833333333299</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -39807,8 +45679,17 @@
       <c r="AS63" t="s">
         <v>234</v>
       </c>
+      <c r="AT63" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="64" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -39944,8 +45825,20 @@
       <c r="AS64">
         <v>11859.666666666601</v>
       </c>
+      <c r="AT64">
+        <f>O64-Q64</f>
+        <v>-34.854100000000003</v>
+      </c>
+      <c r="AU64">
+        <f>F64-H64</f>
+        <v>-4.7090000000000032</v>
+      </c>
+      <c r="AV64">
+        <f>C64-E64</f>
+        <v>0.15640000000000498</v>
+      </c>
     </row>
-    <row r="65" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -40081,8 +45974,20 @@
       <c r="AS65">
         <v>14541.833333333299</v>
       </c>
+      <c r="AT65">
+        <f t="shared" ref="AT65:AT72" si="6">O65-Q65</f>
+        <v>-39.551599999999993</v>
+      </c>
+      <c r="AU65">
+        <f t="shared" ref="AU65:AU72" si="7">F65-H65</f>
+        <v>-0.21699999999998454</v>
+      </c>
+      <c r="AV65">
+        <f t="shared" ref="AV65:AV72" si="8">C65-E65</f>
+        <v>7.0541000000000054</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -40218,8 +46123,20 @@
       <c r="AS66">
         <v>13451.83333333325</v>
       </c>
+      <c r="AT66">
+        <f t="shared" si="6"/>
+        <v>-34.119999999999997</v>
+      </c>
+      <c r="AU66">
+        <f t="shared" si="7"/>
+        <v>-4.2680000000000007</v>
+      </c>
+      <c r="AV66">
+        <f t="shared" si="8"/>
+        <v>3.6463999999999999</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -40355,8 +46272,20 @@
       <c r="AS67">
         <v>12413.499999999949</v>
       </c>
+      <c r="AT67">
+        <f t="shared" si="6"/>
+        <v>-25.606600000000007</v>
+      </c>
+      <c r="AU67">
+        <f t="shared" si="7"/>
+        <v>20.359999999999985</v>
+      </c>
+      <c r="AV67">
+        <f t="shared" si="8"/>
+        <v>-8.2797000000000054</v>
+      </c>
     </row>
-    <row r="68" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -40492,8 +46421,20 @@
       <c r="AS68">
         <v>11574.333333333299</v>
       </c>
+      <c r="AT68">
+        <f t="shared" si="6"/>
+        <v>-32.773900000000005</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" si="7"/>
+        <v>18.081999999999994</v>
+      </c>
+      <c r="AV68">
+        <f t="shared" si="8"/>
+        <v>-2.2105999999999995</v>
+      </c>
     </row>
-    <row r="69" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -40629,8 +46570,20 @@
       <c r="AS69">
         <v>15711.499999999949</v>
       </c>
+      <c r="AT69">
+        <f t="shared" si="6"/>
+        <v>-27.080799999999996</v>
+      </c>
+      <c r="AU69">
+        <f t="shared" si="7"/>
+        <v>11.546999999999997</v>
+      </c>
+      <c r="AV69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -40766,8 +46719,20 @@
       <c r="AS70">
         <v>12676.16666666665</v>
       </c>
+      <c r="AT70">
+        <f t="shared" si="6"/>
+        <v>-23.050799999999995</v>
+      </c>
+      <c r="AU70">
+        <f t="shared" si="7"/>
+        <v>5.8900000000000148</v>
+      </c>
+      <c r="AV70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -40903,8 +46868,20 @@
       <c r="AS71">
         <v>12244.66666666665</v>
       </c>
+      <c r="AT71">
+        <f t="shared" si="6"/>
+        <v>-30.3431</v>
+      </c>
+      <c r="AU71">
+        <f t="shared" si="7"/>
+        <v>7.1409999999999911</v>
+      </c>
+      <c r="AV71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:45" ht="15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:48" ht="15" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -41036,6 +47013,18 @@
       </c>
       <c r="AS72">
         <v>14769.499999999949</v>
+      </c>
+      <c r="AT72">
+        <f t="shared" si="6"/>
+        <v>-24.981199999999994</v>
+      </c>
+      <c r="AU72">
+        <f t="shared" si="7"/>
+        <v>14.451999999999998</v>
+      </c>
+      <c r="AV72">
+        <f t="shared" si="8"/>
+        <v>-7.5892999999999944</v>
       </c>
     </row>
   </sheetData>
